--- a/데이터전처리/data/크롤링/festival_info_1516_transform_coord.xlsx
+++ b/데이터전처리/data/크롤링/festival_info_1516_transform_coord.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA82"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
         <v>2015</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
         <v>961198.0430894487</v>
@@ -704,7 +704,7 @@
         <v>2015</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>956290.9480581067</v>
@@ -799,7 +799,7 @@
         <v>2015</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>954978.6017332709</v>
@@ -892,7 +892,7 @@
         <v>2015</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>962456.3115480574</v>
@@ -994,7 +994,7 @@
         <v>2015</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>957186.8647832075</v>
@@ -1090,7 +1090,7 @@
         <v>2015</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
         <v>956139.8439451406</v>
@@ -1180,7 +1180,7 @@
         <v>2015</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>954758.4550240773</v>
@@ -1273,7 +1273,7 @@
         <v>2015</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>957186.8647832075</v>
@@ -1362,7 +1362,7 @@
         <v>2015</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>948518.2454921149</v>
@@ -1465,7 +1465,7 @@
         <v>2015</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
         <v>949398.0576639368</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>구암근린공원</t>
+          <t>허준근린공원</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1550,38 +1550,42 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>대구 북구 구암동 773</t>
+          <t>서울 강서구 가양동 1471</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>128.569153891696</v>
+        <v>126.852288177516</v>
       </c>
       <c r="S12" t="n">
-        <v>35.9429978568323</v>
-      </c>
-      <c r="T12" t="inlineStr"/>
+        <v>37.56819153732361</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>서울 강서구 허준로5길 42</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/681237230</t>
+          <t>http://place.map.kakao.com/18215699</t>
         </is>
       </c>
       <c r="V12" t="n">
         <v>2015</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>1096624.23405924</v>
+        <v>942989.6690740135</v>
       </c>
       <c r="Y12" t="n">
-        <v>1772033.865349197</v>
+        <v>1951982.559237914</v>
       </c>
       <c r="Z12" t="n">
-        <v>1096431.35147306</v>
+        <v>942800.4927573171</v>
       </c>
       <c r="AA12" t="n">
-        <v>1772339.244204662</v>
+        <v>1952288.844565486</v>
       </c>
     </row>
     <row r="13">
@@ -1653,42 +1657,42 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>서울 성북구 동소문동1가 109</t>
+          <t>서울 성북구 삼선동1가 17</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>127.007862343911</v>
+        <v>127.006906555757</v>
       </c>
       <c r="S13" t="n">
-        <v>37.5895651616081</v>
+        <v>37.5877344045145</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>서울 성북구 동소문로5길 6</t>
+          <t>서울 성북구 삼선교로 10</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1920120454</t>
+          <t>http://place.map.kakao.com/250806619</t>
         </is>
       </c>
       <c r="V13" t="n">
         <v>2015</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>956741.0408048056</v>
+        <v>956655.5948682067</v>
       </c>
       <c r="Y13" t="n">
-        <v>1954270.758407374</v>
+        <v>1954068.084034284</v>
       </c>
       <c r="Z13" t="n">
-        <v>956551.7889543058</v>
+        <v>956466.3406753279</v>
       </c>
       <c r="AA13" t="n">
-        <v>1954576.819268868</v>
+        <v>1954374.147803371</v>
       </c>
     </row>
     <row r="14">
@@ -1811,7 +1815,7 @@
         <v>2015</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
         <v>961198.0430894487</v>
@@ -1829,56 +1833,60 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>대한민국국제포토페스티벌</t>
+          <t>서울마을미디어축제</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42339</v>
+        <v>42349</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>42346</v>
+        <v>42350</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>예술의 전당</t>
+          <t>가톨릭청년회관 다리</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>올해로 3회째를 맞이하는 대한민국국제포토페스티벌(KOREA INTERNATIONAL PHOTO FESTIVAL 2015, 조직위원장 은효진, 총감독 원춘호)이 12월 2일부터 예술의전당 한가람디자인미술관에서 ‘사진을 말하다’라는 주제로 7일간 열린다. 스페인, 영국, 프랑스, 싱가폴, 독일, 중국, 호주 등 국내외 100여 명의 사진작가들이 펼치는 대규모 사진전에는 현대사진의 흐름을 한눈에 알 수 있는 다양한 유형의 사진들이 선보이며 풍성한 볼거리를 제공할 예정이다. 올해는 작년에 비해 규모가 커지고 착한가격에 작품을 직접 구매할 수 있는 아트페어 시장이 펼쳐진다. 12월2일 오후 5시에 있는 오프닝에는 대한민국국제포토페스티벌의 국제친선대사인 세계적인 팝페라가수 이사벨의 부드러우면서 소름돋는 7옥타브 고음의 공연이 펼쳐진다.</t>
+          <t>제 4회 서울마을미디어축제는 2015년 한 해 동안 진행된 마을미디어 활동을 돌아보고 격려하는 자리다. 크게 4개 프로그램으로 진행되며, 2012년부터 시작된 마을미디어 4년의 성과를 한눈에 볼 수 있는 기회를 제공한다. 프로그램은, 지역을 넘어선 마을미디어의 성장과 변화를 확인하는 포럼 "변화를 만든 마을미디어", 마을의 이야기와 이미지를 함께 하는 영화제 “마을영화에 반하다”, 하나부터 열까지 마을의 손에서 탄생하는 방송제 “마이 리틀 라디오”, 마을미디어 콘텐츠 분석부터 홍보 영상, 축하 공연이 모이는 “마을미디어시상식”이다. 서울마을미디어축제를 통해 한껏 풍성해진 마을미디어 활동을 느껴보고 다양한 마을 사람들을 만나보자.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>http://www.kipf.kr</t>
+          <t>http://www.maeulmedia.org</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>하얀나무, APC뉴스 관리자 02-2273-9294</t>
+          <t>관리자 02-3141-6390</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>오프닝 행사, 아트샵 운영</t>
+          <t>12/12(토) 4~6시 서울마을미디어네트워크 파티</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>기간내 자유</t>
+          <t>기간 내 자유</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>연령 제한없음</t>
+          <t>전 연령 가능</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>무료</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2015 대한민국국제포토페스티벌 조직위원회</t>
+          <t>서울마을미디어네트워크, 서울마을미디어센터</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1889,167 +1897,62 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>서울 서초구 서초동 134-1</t>
+          <t>서울 마포구 동교동 158-2</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>127.013625824849</v>
+        <v>126.923162473573</v>
       </c>
       <c r="S15" t="n">
-        <v>37.47943350201761</v>
+        <v>37.5572739922994</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>서울 서초구 남부순환로 2406</t>
+          <t>서울 마포구 월드컵북로2길 49</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/25466462</t>
+          <t>http://place.map.kakao.com/14093975</t>
         </is>
       </c>
       <c r="V15" t="n">
         <v>2015</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>957186.8647832075</v>
+        <v>949241.2789094433</v>
       </c>
       <c r="Y15" t="n">
-        <v>1942049.533322947</v>
+        <v>1950730.611407239</v>
       </c>
       <c r="Z15" t="n">
-        <v>956997.4269698508</v>
+        <v>949052.0339541084</v>
       </c>
       <c r="AA15" t="n">
-        <v>1942355.685343204</v>
+        <v>1951036.812923264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>서울마을미디어축제</t>
+          <t>서울와우북페스티벌</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42349</v>
+        <v>42278</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>42350</v>
+        <v>42281</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>가톨릭청년회관 다리</t>
+          <t>홍익대학교</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
-        <is>
-          <t>제 4회 서울마을미디어축제는 2015년 한 해 동안 진행된 마을미디어 활동을 돌아보고 격려하는 자리다. 크게 4개 프로그램으로 진행되며, 2012년부터 시작된 마을미디어 4년의 성과를 한눈에 볼 수 있는 기회를 제공한다. 프로그램은, 지역을 넘어선 마을미디어의 성장과 변화를 확인하는 포럼 "변화를 만든 마을미디어", 마을의 이야기와 이미지를 함께 하는 영화제 “마을영화에 반하다”, 하나부터 열까지 마을의 손에서 탄생하는 방송제 “마이 리틀 라디오”, 마을미디어 콘텐츠 분석부터 홍보 영상, 축하 공연이 모이는 “마을미디어시상식”이다. 서울마을미디어축제를 통해 한껏 풍성해진 마을미디어 활동을 느껴보고 다양한 마을 사람들을 만나보자.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>http://www.maeulmedia.org</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>관리자 02-3141-6390</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>12/12(토) 4~6시 서울마을미디어네트워크 파티</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>기간 내 자유</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>전 연령 가능</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>무료</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>서울마을미디어네트워크, 서울마을미디어센터</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>문화예술</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>서울 마포구 동교동 158-2</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>126.923162473573</v>
-      </c>
-      <c r="S16" t="n">
-        <v>37.5572739922994</v>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>서울 마포구 월드컵북로2길 49</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/14093975</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>2015</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="n">
-        <v>949241.2789094433</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1950730.611407239</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>949052.0339541084</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1951036.812923264</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>서울와우북페스티벌</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>42278</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>42281</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>홍익대학교</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>“책 하는 나를 되돌아보는 사색의 시간. 사유의 축제.”  열한 번째 서울와우북페스티벌은 ‘책, 삶을 살피다 : 사유의 복원’이라는 주제 아래 펼쳐진다. 본디 책은 오랜 기간 인류 사유의 축적물로서 사랑받았으나 정보의 홍수에 휩쓸려 단편적으로 소비되는 신세가 되었다. 되돌아보고 되짚어볼 때다. 다시, 책이다. 우리는 삶의 본질을 통찰하는 책의 몫을 다시 책에게 돌려주고자 한다. ‘사유의 복원’으로 말미암아 삶을 깊이 살피고 우리 시대를 성찰하는 진정한 책축제의 복원을 기대한다.@@ -2057,33 +1960,33 @@
  ‘사유로서의 책’은 미래를 예측하는 가늠자이다. 흔들리는 오늘을 책실로 묶어 엮는 사이, 삶은 더 나은 내일로 한 발 나아갈 것이다. 축제 후 보다 깊어진 당신을 만나게 되기를 기원한다.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://wowbookfest.com/</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>02-336-1585</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>강연, 공연, 전시 등</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>행사 시간 내 자유관람</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>전 연령 참여 가능</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>야외행사장 : 거리도서전, 공연, 어린이프로그램 등 (홍대 주차장거리 일대)  실내행사장 : 작가 강연/전시 /시낭독회 등 실내 프로그램 진행.  @@ -2101,14 +2004,133 @@
 폼텍웍스홀 : 서울특별시 마포구 잔다리로3길 34 스페이스맘 빌딩 1층</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>참가비 무료(일부 실내 강연 참가비 5,000원)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>사단법인 와우책문화예술센터</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>문화예술</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>서울 마포구 상수동 72-1</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>126.926197880913</v>
+      </c>
+      <c r="S16" t="n">
+        <v>37.5503634742978</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로 94</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/17557586</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>949504.7107918177</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1949962.280082472</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>949315.4522236553</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1950268.48381501</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>서울드럼페스티벌</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>42223</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>42224</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>서울시청광장</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>* 국내외 유명 타악 아티스트 초청공연+  - 국내 : 드럼캣, 발광, 손스타, Korea In Motion Stage(비밥, 빵쇼, 사춤, 점프 등), 시민 아마추어 드러머 등+  - 해외 : BLAST(미국), Aquiles Priester(브라질), Tony Royster &amp; DJ(미국) 등</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>http://www.seouldrum.go.kr/2015/</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>문화예술과 장경진 서울시 문화예술과 : 02-2133-2571+사무국 : 070-4706-0910, 0904</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>* 시민대합주+* 이색타악 퍼레이드+* 마스터클래스 등</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>16:00~18:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>400,000</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>* 주소 : 서울광장(서울시 중구 세종대로 110)+* 대중교통 : 지하철 1, 2호선(시청역 5, 6번 출구), 지하철 2호선(을지로입구역 1, 8번 출구)</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>참가비 무료(일부 실내 강연 참가비 5,000원)</t>
+          <t>무료</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>사단법인 와우책문화예술센터</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2116,118 +2138,94 @@
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>35,000</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>서울 마포구 상수동 72-1</t>
+          <t>서울 중구 태평로1가 54-3</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>126.926197880913</v>
+        <v>126.977968926957</v>
       </c>
       <c r="S17" t="n">
-        <v>37.5503634742978</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>서울 마포구 와우산로 94</t>
-        </is>
-      </c>
+        <v>37.5656726042805</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/17557586</t>
+          <t>http://place.map.kakao.com/7940285</t>
         </is>
       </c>
       <c r="V17" t="n">
         <v>2015</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>949504.7107918177</v>
+        <v>954087.1812964875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1949962.280082472</v>
+        <v>1951634.179023069</v>
       </c>
       <c r="Z17" t="n">
-        <v>949315.4522236553</v>
+        <v>953897.9112466184</v>
       </c>
       <c r="AA17" t="n">
-        <v>1950268.48381501</v>
+        <v>1951940.300737933</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>서울드럼페스티벌</t>
+          <t>남산골한옥마을세시맞이-추억의명절&lt;오(五)대감한가위잔치&gt;</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42223</v>
+        <v>42274</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>42224</v>
+        <v>42275</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>서울시청광장</t>
+          <t>남산골한옥마을</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>* 국내외 유명 타악 아티스트 초청공연-  - 국내 : 드럼캣, 발광, 손스타, Korea In Motion Stage(비밥, 빵쇼, 사춤, 점프 등), 시민 아마추어 드러머 등-  - 해외 : BLAST(미국), Aquiles Priester(브라질), Tony Royster &amp; DJ(미국) 등</t>
+          <t>남산골한옥마을은 추석을 맞아 2015년 9월 27일(일)~9월 28일(월) &lt;오(五)대감 한가위 잔치&gt;를 개최한다. 남산골한옥마을 다섯(五)채의 양반 댁에서 열리는 한가위 잔치를 콘셉트로, 추석에 행해졌던 세시풍속 체험과 민속놀이, 전통공연 등 시민들이 직접 경험하고 즐길 수 있는 다채로운 프로그램이 펼쳐진다. + 특히 이번 행사에서는 “추억의 명절”이라는 콘셉트로 1970-80년대에 즐기던 골목놀이와 추억의 만화영화 상영회를 진행할 예정이다. 시민들에게 명절의 전통문화 체험은 물론 추억의 놀이와 한옥의 정취를 함께 느낄 수 있는 기회를 제공하고자 한다.+ 남산골한옥마을의 입장료는 무료이며 체험료는 프로그램에 따라 무료와 유로로 구분된다.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>http://www.seouldrum.go.kr/2015/</t>
+          <t>http://hanokmaeul.or.kr/b00_event/b03_event_sesi_view.jsp?id=40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>문화예술과 장경진 서울시 문화예술과 : 02-2133-2571-사무국 : 070-4706-0910, 0904</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>* 시민대합주-* 이색타악 퍼레이드-* 마스터클래스 등</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>16:00~18:00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>400,000</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>* 주소 : 서울광장(서울시 중구 세종대로 110)-* 대중교통 : 지하철 1, 2호선(시청역 5, 6번 출구), 지하철 2호선(을지로입구역 1, 8번 출구)</t>
-        </is>
-      </c>
+          <t>02-2261-0501</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>무료</t>
+          <t>무료/유료</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>남산골한옥마을/메타기획컨설팅, 정가악회</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2235,58 +2233,58 @@
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>35,000</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>서울 중구 태평로1가 54-3</t>
+          <t>서울 중구 필동2가 84-1</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>126.977968926957</v>
+        <v>126.994757541945</v>
       </c>
       <c r="S18" t="n">
-        <v>37.5656726042805</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
+        <v>37.5592738638318</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>서울 중구 퇴계로34길 28</t>
+        </is>
+      </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/7940285</t>
+          <t>http://place.map.kakao.com/8246127</t>
         </is>
       </c>
       <c r="V18" t="n">
         <v>2015</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>954087.1812964875</v>
+        <v>955566.0491611534</v>
       </c>
       <c r="Y18" t="n">
-        <v>1951634.179023069</v>
+        <v>1950916.183820087</v>
       </c>
       <c r="Z18" t="n">
-        <v>953897.9112466184</v>
+        <v>955376.7565971893</v>
       </c>
       <c r="AA18" t="n">
-        <v>1951940.300737933</v>
+        <v>1951222.289198561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>남산골한옥마을세시맞이-추억의명절&lt;오(五)대감한가위잔치&gt;</t>
+          <t>실버문화페스티벌</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42274</v>
+        <v>42279</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>42275</v>
+        <v>42279</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,19 +2293,18 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>남산골한옥마을은 추석을 맞아 2015년 9월 27일(일)~9월 28일(월) &lt;오(五)대감 한가위 잔치&gt;를 개최한다. 남산골한옥마을 다섯(五)채의 양반 댁에서 열리는 한가위 잔치를 콘셉트로, 추석에 행해졌던 세시풍속 체험과 민속놀이, 전통공연 등 시민들이 직접 경험하고 즐길 수 있는 다채로운 프로그램이 펼쳐진다. - 특히 이번 행사에서는 “추억의 명절”이라는 콘셉트로 1970-80년대에 즐기던 골목놀이와 추억의 만화영화 상영회를 진행할 예정이다. 시민들에게 명절의 전통문화 체험은 물론 추억의 놀이와 한옥의 정취를 함께 느낄 수 있는 기회를 제공하고자 한다.- 남산골한옥마을의 입장료는 무료이며 체험료는 프로그램에 따라 무료와 유로로 구분된다.</t>
+          <t>노인의 날을 맞이하여 어르신들이 경연 형태로 축제에 참여함으로써 동기를 부여할 뿐 아니라 자존감 회복 및 후배 세대에게 모범적 삶의 태도를 전수하고+계층에 국한된 축제가 아닌 가족, 청년 세대와 함께 하는 사회 통합 축제의 형태로 전환하여 세대 간 교류를 확장하고자 문화체육관광부 주최, 한국문화원연합회 주관 아래 10월 2일 금요일 오전 10시 남산골 한옥마을에서 2015 실버문화페스티벌이 개최된다.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>http://hanokmaeul.or.kr/b00_event/b03_event_sesi_view.jsp?id=40</t>
+          <t>http://blog.naver.com/silverfestival</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02-2261-0501</t>
+          <t>한국문화원연합회 관리자 070-8230-8918</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2317,12 +2314,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>무료/유료</t>
+          <t>무료</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>남산골한옥마을/메타기획컨설팅, 정가악회</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2374,246 +2371,251 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>실버문화페스티벌</t>
+          <t>북팔코믹스페스티벌:쁘띠북코페달빛과자전</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42279</v>
+        <v>42343</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>42279</v>
+        <v>42343</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남산골한옥마을</t>
+          <t>서울산업진흥원</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>노인의 날을 맞이하여 어르신들이 경연 형태로 축제에 참여함으로써 동기를 부여할 뿐 아니라 자존감 회복 및 후배 세대에게 모범적 삶의 태도를 전수하고-계층에 국한된 축제가 아닌 가족, 청년 세대와 함께 하는 사회 통합 축제의 형태로 전환하여 세대 간 교류를 확장하고자 문화체육관광부 주최, 한국문화원연합회 주관 아래 10월 2일 금요일 오전 10시 남산골 한옥마을에서 2015 실버문화페스티벌이 개최된다.</t>
+          <t>북팔코믹스 페스티벌은 5회 개최를 앞두고 있는 국내 최초 서브컬쳐 통합행사로, 문화 속의 문화에 해당하는 서브컬쳐 전반을 다루고 있다. 4회 차까지 진행되어오며 서브컬쳐 참관인과 일반 참관객들이 함께 즐길 수 있는 공간을 만들어 오고 있다.+ 5회 쁘띠북코페는 행사장 전반과 참가자들이 달빛 컨셉으로 행사를 준비하여 일러스트 엽서, 수공예품, 디저트 등 다양한 상품들이 판매된다. 또한 보컬, 댄스공연, 코스프레 이벤트 등을 통해 참관객에게 볼거리와 즐길 거리를 제공한다.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>http://blog.naver.com/silverfestival</t>
+          <t>http://bookpalcomics.com</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>한국문화원연합회 관리자 070-8230-8918</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>관리자 02-6010-8941</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>현장에서 상품을 받을 수 있는 다양한 이벤트 / 다양한 볼거리, 즐길거리, 먹을거리</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>전 연령 가능</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>무료</t>
+          <t>입장료 5,000원</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>㈜ 북팔코믹스</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>문화예술</t>
+          <t>경연사업</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>서울 중구 필동2가 84-1</t>
+          <t>서울 마포구 신수동 448-6</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>126.994757541945</v>
+        <v>126.935296942675</v>
       </c>
       <c r="S20" t="n">
-        <v>37.5592738638318</v>
+        <v>37.5444979032137</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로34길 28</t>
+          <t>서울 마포구 토정로 222</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/8246127</t>
+          <t>http://place.map.kakao.com/114844492</t>
         </is>
       </c>
       <c r="V20" t="n">
         <v>2015</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>955566.0491611534</v>
+        <v>950304.554727454</v>
       </c>
       <c r="Y20" t="n">
-        <v>1950916.183820087</v>
+        <v>1949306.664480896</v>
       </c>
       <c r="Z20" t="n">
-        <v>955376.7565971893</v>
+        <v>950115.2799713566</v>
       </c>
       <c r="AA20" t="n">
-        <v>1951222.289198561</v>
+        <v>1949612.86148439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>북팔코믹스페스티벌:쁘띠북코페달빛과자전</t>
+          <t>압구정로데오힐링페스티벌</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42343</v>
+        <v>42349</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>42343</v>
+        <v>42350</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>서울산업진흥원</t>
+          <t>압구정로데오역</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>북팔코믹스 페스티벌은 5회 개최를 앞두고 있는 국내 최초 서브컬쳐 통합행사로, 문화 속의 문화에 해당하는 서브컬쳐 전반을 다루고 있다. 4회 차까지 진행되어오며 서브컬쳐 참관인과 일반 참관객들이 함께 즐길 수 있는 공간을 만들어 오고 있다.- 5회 쁘띠북코페는 행사장 전반과 참가자들이 달빛 컨셉으로 행사를 준비하여 일러스트 엽서, 수공예품, 디저트 등 다양한 상품들이 판매된다. 또한 보컬, 댄스공연, 코스프레 이벤트 등을 통해 참관객에게 볼거리와 즐길 거리를 제공한다.</t>
+          <t>대한민국 최초, 강남구청이 후원하는 12월 최고의 축제!+2015 압구정로데오 ‘힐링페스티벌’+ 오는 12월 11일(금), 12일(토) 양일 간 압구정 로데오거리에서 대규모 힐링페스티벌이 개최된다. 학교생활에 지친 학생들, 직장생활에 찌든 직장인들, 틀에 박힌 데이트코스에 지친 연인들, 대화가 단절된 가족들. 각박한 생활에 지쳐 ‘Healing이 필요한 모든 사람들을 초대한다.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>http://bookpalcomics.com</t>
+          <t>http://blog.naver.com/fiestaplan11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>관리자 02-6010-8941</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>현장에서 상품을 받을 수 있는 다양한 이벤트 / 다양한 볼거리, 즐길거리, 먹을거리</t>
-        </is>
-      </c>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>전 연령 가능</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>입장료 5,000원</t>
+          <t>선착순 2,000장 으로 나눠주는 무료 팜플렛 한 장이면 양일 진행되는 모든 행사를 전부 무료로 누릴 수 있다. (단, 사진관, 프로포즈 이벤트, 원데이클래스는 소정의 참가비가 있음)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>㈜ 북팔코믹스</t>
+          <t>피에스타플래너즈</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>경연사업</t>
+          <t>기타</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>서울 마포구 신수동 448-6</t>
+          <t>서울 강남구 청담동 139</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>126.935296942675</v>
+        <v>127.040600507256</v>
       </c>
       <c r="S21" t="n">
-        <v>37.5444979032137</v>
+        <v>37.5275193835816</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>서울 마포구 토정로 222</t>
+          <t>서울 강남구 압구정로 지하 402</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/114844492</t>
+          <t>http://place.map.kakao.com/18234115</t>
         </is>
       </c>
       <c r="V21" t="n">
         <v>2015</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>950304.554727454</v>
+        <v>959597.8159936121</v>
       </c>
       <c r="Y21" t="n">
-        <v>1949306.664480896</v>
+        <v>1947372.456811022</v>
       </c>
       <c r="Z21" t="n">
-        <v>950115.2799713566</v>
+        <v>959408.4384959349</v>
       </c>
       <c r="AA21" t="n">
-        <v>1949612.86148439</v>
+        <v>1947678.530411753</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>압구정로데오힐링페스티벌</t>
+          <t>Thebrilliantcountdown2016(영동대로카운트다운)</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42349</v>
+        <v>42369</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>42350</v>
+        <v>42369</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>압구정로데오역</t>
+          <t>코엑스</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>대한민국 최초, 강남구청이 후원하는 12월 최고의 축제!-2015 압구정로데오 ‘힐링페스티벌’- 오는 12월 11일(금), 12일(토) 양일 간 압구정 로데오거리에서 대규모 힐링페스티벌이 개최된다. 학교생활에 지친 학생들, 직장생활에 찌든 직장인들, 틀에 박힌 데이트코스에 지친 연인들, 대화가 단절된 가족들. 각박한 생활에 지쳐 ‘Healing이 필요한 모든 사람들을 초대한다.</t>
+          <t>지난 2011년의 마지막 날부터 함께 해 온 현대자동차의 ‘더 브릴리언트 카운트다운’ + 한 해를 정리하고, 새로운 일 년을 맞이하는 순간을 더욱 특별하고 빛나는 경험으로 만들어왔다. +2016년을 맞이하는 더 브릴리언트 카운트다운 2016은 더 많은 분들과 함께 하고자 삼성역 코엑스 앞 ‘영동대로’에서 펼쳐진다.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>http://blog.naver.com/fiestaplan11</t>
+          <t>http://brand.hyundai.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>관리자</t>
+          <t>운영사무국 관리자 02-865-5033</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>전 연령 가능</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>선착순 2,000장 으로 나눠주는 무료 팜플렛 한 장이면 양일 진행되는 모든 행사를 전부 무료로 누릴 수 있다. (단, 사진관, 프로포즈 이벤트, 원데이클래스는 소정의 참가비가 있음)</t>
+          <t>무료</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>피에스타플래너즈</t>
+          <t>현대자동차</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2624,23 +2626,23 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>서울 강남구 청담동 139</t>
+          <t>서울 강남구 삼성동 159</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>127.040600507256</v>
+        <v>127.058798411617</v>
       </c>
       <c r="S22" t="n">
-        <v>37.5275193835816</v>
+        <v>37.5126307611884</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>서울 강남구 압구정로 지하 402</t>
+          <t>서울 강남구 영동대로 513</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/18234115</t>
+          <t>http://place.map.kakao.com/26437384</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -2650,282 +2652,253 @@
         <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>959597.8159936121</v>
+        <v>961198.0430894487</v>
       </c>
       <c r="Y22" t="n">
-        <v>1947372.456811022</v>
+        <v>1945712.967918863</v>
       </c>
       <c r="Z22" t="n">
-        <v>959408.4384959349</v>
+        <v>961008.6281777843</v>
       </c>
       <c r="AA22" t="n">
-        <v>1947678.530411753</v>
+        <v>1946019.030931892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Thebrilliantcountdown2016(영동대로카운트다운)</t>
+          <t>서울코믹월드</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>42369</v>
+        <v>42364</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>42369</v>
+        <v>42365</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>코엑스</t>
+          <t>서울 강남구 서울무역전시장(SETEC)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>지난 2011년의 마지막 날부터 함께 해 온 현대자동차의 ‘더 브릴리언트 카운트다운’ - 한 해를 정리하고, 새로운 일 년을 맞이하는 순간을 더욱 특별하고 빛나는 경험으로 만들어왔다. -2016년을 맞이하는 더 브릴리언트 카운트다운 2016은 더 많은 분들과 함께 하고자 삼성역 코엑스 앞 ‘영동대로’에서 펼쳐진다.</t>
+          <t>코믹월드란 동아리 판매전을 중심으로 일러스트 콘테스트, 우수회지 콘테스트, 코스프레 무대행사, 엽서그리기대회, 만화노래자랑, 만화가사인회, 성우토크쇼 등 다채로운 이벤트를 진행하는 행사이다.  코믹월드 행사를 통해 자신의 창작품을 소개하고 교류함으로써 만화를 스스로 창작할 수 있는 분위기를 조성하고 나아가 만화를 사랑하는 사람들 간의 커뮤니케이션을 공유하는 장을 만들 수 있다.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>http://brand.hyundai.com</t>
+          <t>http://www.comicw.co.kr</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>운영사무국 관리자 02-865-5033</t>
+          <t>(주)에스이테크노 관리자 02-3142-2137</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>시간 내 자유</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>전 연령 가능</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+          <t>전 연령 가능함</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>* 지하철 3호선 학여울역</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>무료</t>
+          <t>* 1인당 4000 원 (5세 이상 동일)* 행사 당일 행사장 옆 매표소에서 입장권 구입 후 입장 가능* 단체할인 : 20명 이상의 단체일 경우 10명당 입장권 한 장 무료 지급       (20명 입장료로 22명 입장 가능, 당일 매표소 문의, 당일 카드결제 불가)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>현대자동차</t>
+          <t>(주)에스이테크노</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>문화예술</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>서울 강남구 삼성동 159</t>
+          <t>서울 강남구 대치동 514</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>127.058798411617</v>
+        <v>127.072196986216</v>
       </c>
       <c r="S23" t="n">
-        <v>37.5126307611884</v>
+        <v>37.4959006734666</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>서울 강남구 영동대로 513</t>
+          <t>서울 강남구 남부순환로 3104</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/26437384</t>
+          <t>http://place.map.kakao.com/8360965</t>
         </is>
       </c>
       <c r="V23" t="n">
         <v>2015</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>961198.0430894487</v>
+        <v>962373.7528883955</v>
       </c>
       <c r="Y23" t="n">
-        <v>1945712.967918863</v>
+        <v>1943851.407416143</v>
       </c>
       <c r="Z23" t="n">
-        <v>961008.6281777843</v>
+        <v>962184.3009549745</v>
       </c>
       <c r="AA23" t="n">
-        <v>1946019.030931892</v>
+        <v>1944157.467767001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>성북진경</t>
+          <t>독도둘레길체험여의도걷기대회</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>42279</v>
+        <v>42302</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>42288</v>
+        <v>42302</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>서울특별시 성북구 일대</t>
+          <t>여의도 물빛무대</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>성북의 시대, 사람(마을), 보물을 통해 성북의 참된 풍경을 들여다보는 2015 성북진경(城北眞景)이 2015년 10월 2일(금)부터 11일(일)까지 성북구 일대에서 열립니다. 예술단체와 함께하는 한양도성탐방, 옛 삶의 흔적이 남아있는 한적한 성북동 고택에서의 예술 퍼포먼스, 시민들과 함께하는 연극교실 공연, 한글의 가치를 되새기는 어린이 체험프로그램 등이 준비되어 있습니다.  -1. 시대의 풍경 : 역사문화지구 성북의 곳곳에 펼쳐진 역사의 흔적을 지역주민과 예술가와 함께 새로이 발견하고 해석하고 표현하는 행위를 통해 과거를 통해 현재를 비추어 나아갈 바를 찾고자 하는 기대와 희망을 ‘시대의 풍경’ 안에 펼쳐낸다.  - 2. 사람(마을)의 풍경 : 성북동, 동선동, 장위동, 석관동, 월곡동 등 성북의 동 단위 ‘동네’들에서 일어나고 있는 활동, 그리고 지역에서 살아가는 사람들의 이야기와 바람을 마을단위 프로그램을 통해 채집하고 엮어내어 마을의 목소리로 만든다.  - 3. 보물의 풍경 : 가장 과학적이고 신비로운 문자이며 그 안에 담긴 창제원리와 애민정신을 세계적으로 인정받은 우리의 보물 한글의 기본 정신을 되새길 수 있는 한글 프로그램을 어린이들이 쉽고 재미있게 체험할 수 있도록 예술 강사와 협력하여 풀어낸다.  - [프로그램]- 1. 성북동 고택에서 펼쳐지는 예술 공연  -2. 주민들과 함께 만든 지역의 스토리텔링공연  -3. 미아리고개 예술극장에서 날짜별로 역사적 인물을 소재로 한 공연  -4. 성북 기반의 문인들과 함께하는 작품 낭독회  -5. 미아리고개 고가차도 하부공간 콘서트  -6. 성북을 주제로 한 전시</t>
+          <t>독도의 주요 섬 및 지형 등을 관찰하고 독도의 아름다움을 알리고자 하는 의미로 5.4km의 독도 둘레길을 여의도 한강공원에서 진행한다.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>http://www.sbculture.or.kr</t>
+          <t>http://www.dokdofoundation.or.kr</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>성북문화재단 070-8644-8288</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1. 어린이 한글놀이 체험 및 전시  -2. 가족 연날리기  -3. 청소년 전통 성인식 체험 및 도전골든벨  -4. 주민 시창작  -5. 장위시장에서 보물찾기  -6. 한양도성 예술 탐방체험</t>
-        </is>
-      </c>
+          <t>㈜케이커뮤니케이션 관리자 02-783-1956~7</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>무료</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>성북구/성북문화재단</t>
+          <t>(재)독도의용수비대 기념사업회</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>전통역사</t>
+          <t>생태자원</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>서울 중구 만리동1가 51-1</t>
+          <t>서울 영등포구 여의도동 84-1</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>126.968242862172</v>
+        <v>126.9279987012228</v>
       </c>
       <c r="S24" t="n">
-        <v>37.5570820881403</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>서울 중구 중림로 50-1</t>
-        </is>
-      </c>
+        <v>37.53234459380693</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1342858865</t>
+          <t>http://place.map.kakao.com/14735483</t>
         </is>
       </c>
       <c r="V24" t="n">
         <v>2015</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>953222.8526517068</v>
+        <v>949651.6503912626</v>
       </c>
       <c r="Y24" t="n">
-        <v>1950685.899197976</v>
+        <v>1947962.194709559</v>
       </c>
       <c r="Z24" t="n">
-        <v>953033.5753104658</v>
+        <v>949462.3606815953</v>
       </c>
       <c r="AA24" t="n">
-        <v>1950992.041452203</v>
+        <v>1948268.412266112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>서울코믹월드</t>
+          <t>한글문화장터</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>42364</v>
+        <v>42286</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>42365</v>
+        <v>42287</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>서울 강남구 서울무역전시장(SETEC)</t>
+          <t>국립한글박물관</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>코믹월드란 동아리 판매전을 중심으로 일러스트 콘테스트, 우수회지 콘테스트, 코스프레 무대행사, 엽서그리기대회, 만화노래자랑, 만화가사인회, 성우토크쇼 등 다채로운 이벤트를 진행하는 행사이다.  코믹월드 행사를 통해 자신의 창작품을 소개하고 교류함으로써 만화를 스스로 창작할 수 있는 분위기를 조성하고 나아가 만화를 사랑하는 사람들 간의 커뮤니케이션을 공유하는 장을 만들 수 있다.</t>
+          <t>한글날을 맞이하여 한글문화상품 체험과 교육 체험, 책 나눔장, 먹거리, 문화공연 등 다양한 볼거리와 즐길거리가 있는 문화장터입니다.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>http://www.comicw.co.kr</t>
+          <t>http://www.hangeul.go.kr/eventBbs/bbsView.do?curr_menu_cd=0107070000&amp;pageIndex=1&amp;bbs_id=1&amp;bbs_no=47&amp;search_type=title&amp;search_text=</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(주)에스이테크노 관리자 02-3142-2137</t>
+          <t>연구교육과 02-2124-6446</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>시간 내 자유</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>전 연령 가능함</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>* 지하철 3호선 학여울역</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>* 1인당 4000 원 (5세 이상 동일)* 행사 당일 행사장 옆 매표소에서 입장권 구입 후 입장 가능* 단체할인 : 20명 이상의 단체일 경우 10명당 입장권 한 장 무료 지급       (20명 입장료로 22명 입장 가능, 당일 매표소 문의, 당일 카드결제 불가)</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>(주)에스이테크노</t>
+          <t>국립한글박물관</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2936,80 +2909,89 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>서울 강남구 대치동 514</t>
+          <t>서울 용산구 용산동6가 168-6</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>127.072196986216</v>
+        <v>126.980977473728</v>
       </c>
       <c r="S25" t="n">
-        <v>37.4959006734666</v>
+        <v>37.5211853774917</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>서울 강남구 남부순환로 3104</t>
+          <t>서울 용산구 서빙고로 139</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/8360965</t>
+          <t>http://place.map.kakao.com/25612651</t>
         </is>
       </c>
       <c r="V25" t="n">
         <v>2015</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>962373.7528883955</v>
+        <v>954325.7070492505</v>
       </c>
       <c r="Y25" t="n">
-        <v>1943851.407416143</v>
+        <v>1946697.051846541</v>
       </c>
       <c r="Z25" t="n">
-        <v>962184.3009549745</v>
+        <v>954136.361299988</v>
       </c>
       <c r="AA25" t="n">
-        <v>1944157.467767001</v>
+        <v>1947003.20955536</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>독도둘레길체험여의도걷기대회</t>
+          <t>대한민국커피축제</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>42302</v>
+        <v>42300</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>42302</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>여의도 물빛무대</t>
+          <t>서울시 중구 정동길</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>독도의 주요 섬 및 지형 등을 관찰하고 독도의 아름다움을 알리고자 하는 의미로 5.4km의 독도 둘레길을 여의도 한강공원에서 진행한다.</t>
+          <t>커피시장은 2015년 현재 4조 6천억 원에 산업으로 성장했고 국민 1인이 하루에 2잔 정도의 커피를 마시는 나라가 되었다. 커피는 단순히 마시는 기호식품에서 하나의 문화로 생활에 자리매김을 하고 있으며 우리는 단순히 커피를 마신다는 것이 아니라 커피 문화를 공유하는 단계에 이르렀다. 이처럼 커피문화의 생활이 대중에게 빠르게 확산되다 보니 사람들은 커피를 매개로 하여 정치, 사회, 예술을 이야기하고 교류하게 되었고, 커피는 시대적 분위기와 문화적 상징성이라는 가치를 가지게 되었다.+  따라서 우리 사회는 커피를 통한 문화예술의 대중적 향유가 증진되었고 교류와 소통을 통해 문화적 감성이 풍요로워졌다. 커피는 더 이상 개인의 취향이 아닌 국민적인 공감대를 일으키는 대중문화의 한 키워드가 되었다. 이런 커피를 매개로 제4회 대한민국커피축제는 대중이 소통하고 문화를 나누고 기부로 이웃을 돌아보자는 취지로 커피의 메카 정동에서 10월 23일 시민과 함께 아름다운 이야기를 시작하려 한다.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>http://www.dokdofoundation.or.kr</t>
+          <t>http://blog.naver.com/coffeefestival</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>㈜케이커뮤니케이션 관리자 02-783-1956~7</t>
+          <t>관리자 010-8735-7115 / 010-3232-5205</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>기간 내 자유</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>전 연령 가능</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -3018,84 +3000,89 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>(재)독도의용수비대 기념사업회</t>
+          <t>대한민국 커피축제 조직위원회</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>생태자원</t>
+          <t>경연사업</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>서울 영등포구 여의도동 84-1</t>
+          <t>서울 중구 정동 15-5</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>126.9279987012228</v>
+        <v>126.970941412197</v>
       </c>
       <c r="S26" t="n">
-        <v>37.53234459380693</v>
-      </c>
-      <c r="T26" t="inlineStr"/>
+        <v>37.5676100269276</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>서울 중구 정동길 21-15</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/14735483</t>
+          <t>http://place.map.kakao.com/26423272</t>
         </is>
       </c>
       <c r="V26" t="n">
         <v>2015</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>949651.6503912626</v>
+        <v>953467.7583227286</v>
       </c>
       <c r="Y26" t="n">
-        <v>1947962.194709559</v>
+        <v>1951852.589862291</v>
       </c>
       <c r="Z26" t="n">
-        <v>949462.3606815953</v>
+        <v>953278.4964771426</v>
       </c>
       <c r="AA26" t="n">
-        <v>1948268.412266112</v>
+        <v>1952158.719084875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>한글문화장터</t>
+          <t>정동야행</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>42286</v>
+        <v>42306</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>42287</v>
+        <v>42308</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>국립한글박물관</t>
+          <t>서울시 중구 정동길</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>한글날을 맞이하여 한글문화상품 체험과 교육 체험, 책 나눔장, 먹거리, 문화공연 등 다양한 볼거리와 즐길거리가 있는 문화장터입니다.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>http://www.hangeul.go.kr/eventBbs/bbsView.do?curr_menu_cd=0107070000&amp;pageIndex=1&amp;bbs_id=1&amp;bbs_no=47&amp;search_type=title&amp;search_text=</t>
-        </is>
-      </c>
+          <t>서울특별시 중구에서는 덕수궁이 있는 근대 역사의 시작, 근대 문화유산 일번지 정동에서 야간형 문화축제 『2015. 가을 정동야행(貞洞’夜行)』 를 2015년 10월 29일 부터 31일 까지 3일간 개최한다.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>연구교육과 02-2124-6446</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>관리자 02-3396-4612~6</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>- 유료 체험 프로그램 : 한지 주마등만들기, 한지 족자 체험, 한지 서책 만들기+ - 무료 체험 프로그램 : 신당 한지 부적 만들기, 한지 꽃향첩 만들기, 한지 수결 체험, 한지 제기 만들기</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3103,362 +3090,69 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>국립한글박물관</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>문화예술</t>
-        </is>
-      </c>
+          <t>서울중구, 중구문화재단</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>서울 용산구 용산동6가 168-6</t>
+          <t>서울 중구 정동 15-5</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>126.980977473728</v>
+        <v>126.970941412197</v>
       </c>
       <c r="S27" t="n">
-        <v>37.5211853774917</v>
+        <v>37.5676100269276</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>서울 용산구 서빙고로 139</t>
+          <t>서울 중구 정동길 21-15</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/25612651</t>
+          <t>http://place.map.kakao.com/26423272</t>
         </is>
       </c>
       <c r="V27" t="n">
         <v>2015</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>954325.7070492505</v>
+        <v>953467.7583227286</v>
       </c>
       <c r="Y27" t="n">
-        <v>1946697.051846541</v>
+        <v>1951852.589862291</v>
       </c>
       <c r="Z27" t="n">
-        <v>954136.361299988</v>
+        <v>953278.4964771426</v>
       </c>
       <c r="AA27" t="n">
-        <v>1947003.20955536</v>
+        <v>1952158.719084875</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>크리스마스거리축제</t>
+          <t>정동문화축제</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>42356</v>
+        <v>42306</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>42365</v>
+        <v>42308</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>신촌 연세로</t>
+          <t>서울시 중구 정동길</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>사랑하는 가족, 연인과 함께 도심에서 특별한 크리스마스를 즐기고 싶다면 신촌 연세로에서 열리는 크리스마스거리축제를 주목하자. 서대문구(구청장 문석진)가 개최하는 신촌 크리스마스 거리축제는 12월 18일부터 27일까지 대중교통전용로인 연세로의 차량을 통제하고 신촌 일대에서 펼치는 대표적인 겨울 시즌 거리축제이다.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>http://play.sdm.go.kr</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>관리자 02-330-1410</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>축제블로그 사전이벤트: 자신의 블로그에 축제를 포스팅하거나 2차홍보에 참여하신 분들께 추첨을 통해 축제현장에서 산타, 루돌프, 펭귄과 함께하는 즉석사진 촬영 이벤트 진행(오후3시~오후7시)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>연세대학교 정문 맞은편 / 신촌전철역 2,3번출구방향</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>무료(단, 싸일런트디스코 및 크리스마스거리가게는 유료)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>서대문구</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>서울 서대문구 창천동 72-23</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>126.933538916818</v>
-      </c>
-      <c r="S28" t="n">
-        <v>37.55675771068471</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>서울 서대문구 연세로5다길 35</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/23993444</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>2015</v>
-      </c>
-      <c r="W28" t="n">
-        <v>9</v>
-      </c>
-      <c r="X28" t="n">
-        <v>950157.427384367</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1950667.771801902</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>949968.1741891311</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1950973.960092456</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>대한민국커피축제</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>42300</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>42302</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>서울시 중구 정동길</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>커피시장은 2015년 현재 4조 6천억 원에 산업으로 성장했고 국민 1인이 하루에 2잔 정도의 커피를 마시는 나라가 되었다. 커피는 단순히 마시는 기호식품에서 하나의 문화로 생활에 자리매김을 하고 있으며 우리는 단순히 커피를 마신다는 것이 아니라 커피 문화를 공유하는 단계에 이르렀다. 이처럼 커피문화의 생활이 대중에게 빠르게 확산되다 보니 사람들은 커피를 매개로 하여 정치, 사회, 예술을 이야기하고 교류하게 되었고, 커피는 시대적 분위기와 문화적 상징성이라는 가치를 가지게 되었다.-  따라서 우리 사회는 커피를 통한 문화예술의 대중적 향유가 증진되었고 교류와 소통을 통해 문화적 감성이 풍요로워졌다. 커피는 더 이상 개인의 취향이 아닌 국민적인 공감대를 일으키는 대중문화의 한 키워드가 되었다. 이런 커피를 매개로 제4회 대한민국커피축제는 대중이 소통하고 문화를 나누고 기부로 이웃을 돌아보자는 취지로 커피의 메카 정동에서 10월 23일 시민과 함께 아름다운 이야기를 시작하려 한다.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>http://blog.naver.com/coffeefestival</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>관리자 010-8735-7115 / 010-3232-5205</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>기간 내 자유</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>전 연령 가능</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>무료</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>대한민국 커피축제 조직위원회</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>경연사업</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>서울 중구 충정로1가 51-11</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
-        <v>126.969193559523</v>
-      </c>
-      <c r="S29" t="n">
-        <v>37.56802764579439</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>서울 중구 정동길 2</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/1808021895</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>2015</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2</v>
-      </c>
-      <c r="X29" t="n">
-        <v>953313.6629700123</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1951899.791179709</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>953124.4030591059</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1952205.922327731</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>정동야행</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>42306</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>42308</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>서울시 중구 정동길</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>서울특별시 중구에서는 덕수궁이 있는 근대 역사의 시작, 근대 문화유산 일번지 정동에서 야간형 문화축제 『2015. 가을 정동야행(貞洞’夜行)』 를 2015년 10월 29일 부터 31일 까지 3일간 개최한다.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>관리자 02-3396-4612~6</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>- 유료 체험 프로그램 : 한지 주마등만들기, 한지 족자 체험, 한지 서책 만들기- - 무료 체험 프로그램 : 신당 한지 부적 만들기, 한지 꽃향첩 만들기, 한지 수결 체험, 한지 제기 만들기</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>서울중구, 중구문화재단</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>서울 중구 충정로1가 51-11</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>126.969193559523</v>
-      </c>
-      <c r="S30" t="n">
-        <v>37.56802764579439</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>서울 중구 정동길 2</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/1808021895</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>2015</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2</v>
-      </c>
-      <c r="X30" t="n">
-        <v>953313.6629700123</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1951899.791179709</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>953124.4030591059</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1952205.922327731</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>정동문화축제</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>42306</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>42308</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>서울시 중구 정동길</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>‘제17회 정동문화축제’가 10월29일부터 31일까지 서울 중구 경향신문사 앞 정동길에서 열립니다. 경향신문사~성프란치스코회 수도원~이화여고~정동제일교회~서울시립미술관~덕수궁 돌담길로 이어지는 정동길은 한국에서 은행나무 단풍잎이 가장 아름다운 거리로 알려져 있습니다.   100여년 전 대한제국 외교의 중심지였던 정동길은 고궁, 주한 외국 대사관, 미술관, 공연장이 어우러진 서울 지역의 대표적 역사문화벨트로 역할하고 있는 곳이기도 합니다. @@ -3467,17 +3161,17 @@
  이 밖에 배 나눠주기 행사, 보물찾기, 정동길 사연 적기 이벤트, 전통탈 만들기 등 시민들이 참여할 수 있는 다양한 체험 행사가 마련됩니다. 경향신문이 주최하는 ‘문화놀이터’ 정동문화축제에서 늦가을의 정취를 만끽하시기 바랍니다.</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://jungdong.khan.co.kr/</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>정동문화축제 조직위원회 02-3701-1603</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>경향신문 장난감 박물관 ‘토이키노’ 소장 피규어와 장난감 전시 할로윈파티 코스프레 퍼포먼스 @@ -3487,235 +3181,506 @@
 (스타벅스 크리에이티브 텀블러, 커피, 음료 증정)</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>지하철 5호선 서대문역 5번출구 도보 5분/1호선, 2호선 시청역 도보 5분</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>무료</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>경향신문사</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>문화예술</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>서울 중구 정동 15-5</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>126.970941412197</v>
+      </c>
+      <c r="S28" t="n">
+        <v>37.5676100269276</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>서울 중구 정동길 21-15</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/26423272</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>2015</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>953467.7583227286</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1951852.589862291</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>953278.4964771426</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1952158.719084875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>북팔코믹스페스티벌:할로북코페</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>42308</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>42308</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>노원구 중계근린공원</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>북팔코믹스 페스티벌은 4회 개최를 앞두고 있는 국내 최초 서브컬쳐 통합행사로, 문화 속의 문화에 해당하는 서브컬쳐 전반을 다루고 있다. 3회차 까지 진행되어 오면서 서브컬쳐 참관인과 일반 참관객들이 함께 즐길 수 있는 공간을 만들어 오고 있다. 4회 할로북코페는 행사장 전반과 참가자들이 할로윈 컨셉의 행사를 준비하며, 일러스트 엽서, 수공예품, 디저트 등 다양한 상품들이 판매된다. 또한 보컬, 댄스공연, 코스프레 이벤트 등을 통해 참관객분들에게 볼거리와 즐길거리를 제공한다.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>http://bookpalcomics.com</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>관리자 02-6010-8941</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>현장에서 상품을 받을 수 있는 다양한 이벤트 / 할로윈 포토존 등 다양한 볼거리, 즐길거리</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>전연령 가능</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>입장료 무료</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>㈜ 북팔코믹스</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>문화예술</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>서울 노원구 중계동 360-18</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>127.070441576723</v>
+      </c>
+      <c r="S29" t="n">
+        <v>37.6493609760719</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/1752490575</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>962296.1633968432</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1960877.875074433</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>962106.965468503</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1961183.799760439</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>경북착한사과페스티벌</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>서울시청광장</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>최고의 맛과 상품성을 자랑하는 경북사과가 풍성한 수확의 계절을 맞이하여 소비자와 함께 하는 경북사과 홍보행사를 갖는다. &lt;2015 경북 착한사과 페스티벌&gt;은 경상북도와 사과주산지시장군수협의회가 공동 주최하는 행사로 11월 9일부터 11일까지 3일간 서울광장에서 진행되며 경상북도 15개 주산지의 품질과 맛의 우수성을 알려 경북사과를 전 국민에게 제공할 수 있는 행사가 될 것이다. 개막행사를 시작으로 다양한 축하공연과 홍보 이벤트가 진행된다.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>대구경북능금농업협동조합 관리자 053-743-2882~5, 053-961-8969</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>내 외국인 친구에게 경북을 소개합니다. 가을엔 경북 사과하세요.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>기간 내 자유</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>연령 제한 없음</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>경상북도, 사과주산지시장군수협의회</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>서울 중구 태평로1가 54-3</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>126.977968926957</v>
+      </c>
+      <c r="S30" t="n">
+        <v>37.5656726042805</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/7940285</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>2015</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>954087.1812964875</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1951634.179023069</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>953897.9112466184</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1951940.300737933</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>남산한옥마을세시맞이따뜻한겨울애(愛)동지</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>42358</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>42358</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>남산골한옥마을</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>동지는 24절후의 22번째 절기로 일 년 중에서 밤이 가장 길고 낮이 가장 짧은 날이다. 예부터 동짓날이 되면 백성들은 모든 빚을 청산하고 새로운 기분으로 하루를 즐겼다. 남산골한옥마을에서는 동지를 맞이하여 &lt;남산한옥마을 세시맞이 따뜻한 겨울애(愛) 동지&gt; 행사를 개최한다.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>남산한옥마을 관리자 02-2261-0512</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>지하철 5호선 서대문역 5번출구 도보 5분/1호선, 2호선 시청역 도보 5분</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>무료</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>전 연령 관람 가능</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>경향신문사</t>
+          <t>서울시</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>문화예술</t>
+          <t>전통역사</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>서울 중구 충정로1가 51-11</t>
+          <t>서울 중구 필동2가 84-1</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>126.969193559523</v>
+        <v>126.994757541945</v>
       </c>
       <c r="S31" t="n">
-        <v>37.56802764579439</v>
+        <v>37.5592738638318</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>서울 중구 정동길 2</t>
+          <t>서울 중구 퇴계로34길 28</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1808021895</t>
+          <t>http://place.map.kakao.com/8246127</t>
         </is>
       </c>
       <c r="V31" t="n">
         <v>2015</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>953313.6629700123</v>
+        <v>955566.0491611534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1951899.791179709</v>
+        <v>1950916.183820087</v>
       </c>
       <c r="Z31" t="n">
-        <v>953124.4030591059</v>
+        <v>955376.7565971893</v>
       </c>
       <c r="AA31" t="n">
-        <v>1952205.922327731</v>
+        <v>1951222.289198561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>북팔코믹스페스티벌:할로북코페</t>
+          <t>K-FoodFestival</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>42308</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>42308</v>
+        <v>42309</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>노원구 중계근린공원</t>
+          <t>청계광장</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>북팔코믹스 페스티벌은 4회 개최를 앞두고 있는 국내 최초 서브컬쳐 통합행사로, 문화 속의 문화에 해당하는 서브컬쳐 전반을 다루고 있다. 3회차 까지 진행되어 오면서 서브컬쳐 참관인과 일반 참관객들이 함께 즐길 수 있는 공간을 만들어 오고 있다. 4회 할로북코페는 행사장 전반과 참가자들이 할로윈 컨셉의 행사를 준비하며, 일러스트 엽서, 수공예품, 디저트 등 다양한 상품들이 판매된다. 또한 보컬, 댄스공연, 코스프레 이벤트 등을 통해 참관객분들에게 볼거리와 즐길거리를 제공한다.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>http://bookpalcomics.com</t>
-        </is>
-      </c>
+          <t>더불어 만들고 다 함께 즐기며 한식의 맛을 알아가고자 개최되는 축제로서, 궁중, 종가, 사찰음식 등 한국 전통음식의 체험, 트렌디한 한식의 홍보∙전시, 2015 밀라노엑스포 한국관 성과, K-Smile 캠페인 홍보, 음식 관련 이벤트, 공연 등의 여러 프로그램으로 구성되어 있다.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>관리자 02-6010-8941</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>현장에서 상품을 받을 수 있는 다양한 이벤트 / 할로윈 포토존 등 다양한 볼거리, 즐길거리</t>
-        </is>
-      </c>
+          <t>한국관광공사 관리자 033-738-3647</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>전연령 가능</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>입장료 무료</t>
+          <t>무료</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>㈜ 북팔코믹스</t>
+          <t>문화체육관광부</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>문화예술</t>
+          <t>전통역사</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>서울 노원구 중계동 360-18</t>
+          <t>서울 중구 태평로1가 1</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>127.070441576723</v>
+        <v>126.9775921209616</v>
       </c>
       <c r="S32" t="n">
-        <v>37.6493609760719</v>
+        <v>37.56907469351607</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1752490575</t>
+          <t>http://place.map.kakao.com/11512319</t>
         </is>
       </c>
       <c r="V32" t="n">
         <v>2015</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>962296.1633968432</v>
+        <v>954055.996612937</v>
       </c>
       <c r="Y32" t="n">
-        <v>1960877.875074433</v>
+        <v>1952011.81166166</v>
       </c>
       <c r="Z32" t="n">
-        <v>962106.965468503</v>
+        <v>953866.7324568093</v>
       </c>
       <c r="AA32" t="n">
-        <v>1961183.799760439</v>
+        <v>1952317.930808754</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>경북착한사과페스티벌</t>
+          <t>북팔코믹스페스티벌</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>42317</v>
+        <v>42252</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>42319</v>
+        <v>42253</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>서울시청광장</t>
+          <t>노들나루공원</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>최고의 맛과 상품성을 자랑하는 경북사과가 풍성한 수확의 계절을 맞이하여 소비자와 함께 하는 경북사과 홍보행사를 갖는다. &lt;2015 경북 착한사과 페스티벌&gt;은 경상북도와 사과주산지시장군수협의회가 공동 주최하는 행사로 11월 9일부터 11일까지 3일간 서울광장에서 진행되며 경상북도 15개 주산지의 품질과 맛의 우수성을 알려 경북사과를 전 국민에게 제공할 수 있는 행사가 될 것이다. 개막행사를 시작으로 다양한 축하공연과 홍보 이벤트가 진행된다.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>북팔 코믹스 페스티벌은 서브컬쳐 통합행사로, 만화 · 애니메이션 · 수공예 · 코스프레 · 캐리커쳐 등 주요문화에서 파생된 서브컬쳐 문화를 지원 및 홍보를 목적으로 한다. 창작자들을 알리고 관람객과 소통할 수 있는 공간을 창출해냄으로써 참여인원이 주체가 되는 행사로, 서브컬쳐문화의 길을 정착하는데 기여한다.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>http://www.bookpalcomics.com</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>대구경북능금농업협동조합 관리자 053-743-2882~5, 053-961-8969</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>내 외국인 친구에게 경북을 소개합니다. 가을엔 경북 사과하세요.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>기간 내 자유</t>
-        </is>
-      </c>
+          <t>관리자 070-4789-4622</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>연령 제한 없음</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>전 연령 가능</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>노들역(9호선) 2번 출구 노들나루공원</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>무료</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>경상북도, 사과주산지시장군수협의회</t>
+          <t>㈜북팔 코믹스</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>서울 중구 태평로1가 54-3</t>
+          <t>서울 동작구 본동 258-1</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>126.977968926957</v>
+        <v>126.953615720558</v>
       </c>
       <c r="S33" t="n">
-        <v>37.5656726042805</v>
-      </c>
-      <c r="T33" t="inlineStr"/>
+        <v>37.5137210973178</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>서울 동작구 노량진로 247</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/7940285</t>
+          <t>http://place.map.kakao.com/24894850</t>
         </is>
       </c>
       <c r="V33" t="n">
@@ -3725,148 +3690,164 @@
         <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>954087.1812964875</v>
+        <v>951903.0393187277</v>
       </c>
       <c r="Y33" t="n">
-        <v>1951634.179023069</v>
+        <v>1945882.581681107</v>
       </c>
       <c r="Z33" t="n">
-        <v>953897.9112466184</v>
+        <v>951713.7005969977</v>
       </c>
       <c r="AA33" t="n">
-        <v>1951940.300737933</v>
+        <v>1946188.782141991</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>남산한옥마을세시맞이따뜻한겨울애(愛)동지</t>
+          <t>강동친환경도시농업축제</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>42358</v>
+        <v>42252</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>42358</v>
+        <v>42252</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>남산골한옥마을</t>
+          <t>강동구청</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>동지는 24절후의 22번째 절기로 일 년 중에서 밤이 가장 길고 낮이 가장 짧은 날이다. 예부터 동짓날이 되면 백성들은 모든 빚을 청산하고 새로운 기분으로 하루를 즐겼다. 남산골한옥마을에서는 동지를 맞이하여 &lt;남산한옥마을 세시맞이 따뜻한 겨울애(愛) 동지&gt; 행사를 개최한다.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>강동 친환경 도시농업 축제는 도시농업 관련 진행사업에 대한 주민 유도 및 생태도시 강동 홍보와 도시농업단체로 구성된 축제협의회 구성 매년 짜임새 있고 책임감 있는 행사 주관으로 민·관거버넌스 구축, 도시농업을 즐기고, 어울리고, 흥미를 느낄 수 있는 풍성한 축제이다.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>http://www.gangdong.go.kr/cityfarm</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>남산한옥마을 관리자 02-2261-0512</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>사회적협동조합 관리자 02-3425-6542</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>- 유기농 먹거리(산나물전, 통밀 비빔밥, 구억배추 메밀전, 유기농 막걸리 등 건강 먹거리 판매+ - 텃밭놀이, 물총파티</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>전 연령 관람 가능</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>무료</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>서울시</t>
+          <t>강동구</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>전통역사</t>
+          <t>생태자원</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>서울 중구 필동2가 84-1</t>
+          <t>서울 강동구 성내동 320-7</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>126.994757541945</v>
+        <v>127.1214740127641</v>
       </c>
       <c r="S34" t="n">
-        <v>37.5592738638318</v>
+        <v>37.53067523981376</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로34길 28</t>
+          <t>서울 강동구 천호옛길 14</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/8246127</t>
+          <t>http://place.map.kakao.com/17689310</t>
         </is>
       </c>
       <c r="V34" t="n">
         <v>2015</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>955566.0491611534</v>
+        <v>966745.1178702199</v>
       </c>
       <c r="Y34" t="n">
-        <v>1950916.183820087</v>
+        <v>1947690.858727284</v>
       </c>
       <c r="Z34" t="n">
-        <v>955376.7565971893</v>
+        <v>966555.6883867003</v>
       </c>
       <c r="AA34" t="n">
-        <v>1951222.289198561</v>
+        <v>1947996.82343784</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>K-FoodFestival</t>
+          <t>서울김장문화제</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>42308</v>
+        <v>42314</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>42309</v>
+        <v>42316</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>청계광장</t>
+          <t>서울시청광장</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>더불어 만들고 다 함께 즐기며 한식의 맛을 알아가고자 개최되는 축제로서, 궁중, 종가, 사찰음식 등 한국 전통음식의 체험, 트렌디한 한식의 홍보∙전시, 2015 밀라노엑스포 한국관 성과, K-Smile 캠페인 홍보, 음식 관련 이벤트, 공연 등의 여러 프로그램으로 구성되어 있다.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>우리 고유의 김장문화를 오감으로 느낄 수 있는 축제 &lt;서울김장문화제&gt;가 11월 6일부터 8일까지 3일간 서울광장, 광화문 광장, 태평로 일대에서 개최된다. 유네스코 인류무형유산에까지 등재될 정도로 세계가 주목하는 문화이지만 정작 우리 삶 속에서 점차 사라져 가고 있는 김장문화를 재현하고 재창조해 축제가 진행된다. 서울김장문화제를 통해 소외계층에 대한 나눔문화 확산되고, 서울을 방문하는 외국인 관광객 등이 동참하는 문화축제이다. + - 손수 김장잔치(나눔)+- 김장월드(김장마켓, 먹거리, 공동체마켓, 국제청년교류마켓) +- 김장문화마을(전시, 체험, 공연, 어린이체험)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>http://seoulkimchifestival.com</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>한국관광공사 관리자 033-738-3647</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>서울김장문화제추진위원회 02-2133-4756</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>해양수산부 - 어식백세페스티벌(광화문광장)</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>무료</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>문화체육관광부</t>
+          <t>서울특별시/서울김장문화제추진위원회, 서울특별시사회복집협의회, (주)한국야쿠르트</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3877,564 +3858,166 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>서울 중구 태평로1가 1</t>
+          <t>서울 중구 태평로1가 54-3</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>126.9775921209616</v>
+        <v>126.977968926957</v>
       </c>
       <c r="S35" t="n">
-        <v>37.56907469351607</v>
+        <v>37.5656726042805</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/11512319</t>
+          <t>http://place.map.kakao.com/7940285</t>
         </is>
       </c>
       <c r="V35" t="n">
         <v>2015</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>954055.996612937</v>
+        <v>954087.1812964875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1952011.81166166</v>
+        <v>1951634.179023069</v>
       </c>
       <c r="Z35" t="n">
-        <v>953866.7324568093</v>
+        <v>953897.9112466184</v>
       </c>
       <c r="AA35" t="n">
-        <v>1952317.930808754</v>
+        <v>1951940.300737933</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>북팔코믹스페스티벌</t>
+          <t>6시내고향토종씨앗축제</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>42252</v>
+        <v>42474</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>42253</v>
+        <v>42476</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>노들나루공원</t>
+          <t>KBS홀</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>북팔 코믹스 페스티벌은 서브컬쳐 통합행사로, 만화 · 애니메이션 · 수공예 · 코스프레 · 캐리커쳐 등 주요문화에서 파생된 서브컬쳐 문화를 지원 및 홍보를 목적으로 한다. 창작자들을 알리고 관람객과 소통할 수 있는 공간을 창출해냄으로써 참여인원이 주체가 되는 행사로, 서브컬쳐문화의 길을 정착하는데 기여한다.</t>
+          <t>토종씨앗축제는 KBS 6시 내고향이 6000회를 맞이해 2016년 4월 14일부터 16일까지 여의도 KBS홀 앞 광장에서 열린다. 축제기간동안 토종씨앗 나눔과 함께 토종먹거리장터, 일일토종학교에 참여할 수 있다.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>http://www.bookpalcomics.com</t>
+          <t>http://www.kbs.co.kr/1tv/sisa/sixhour/intro/index.html</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>관리자 070-4789-4622</t>
+          <t>토종씨드림 관리자</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>전 연령 가능</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>노들역(9호선) 2번 출구 노들나루공원</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>무료</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>㈜북팔 코믹스</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>KBS</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>지역특산물</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>서울 동작구 본동 258-1</t>
+          <t>서울 영등포구 여의도동 18</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>126.953615720558</v>
+        <v>126.915221437055</v>
       </c>
       <c r="S36" t="n">
-        <v>37.5137210973178</v>
+        <v>37.52582727833621</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>서울 동작구 노량진로 247</t>
+          <t>서울 영등포구 여의공원로 13</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/24894850</t>
+          <t>http://place.map.kakao.com/11000761</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>951903.0393187277</v>
+        <v>948518.2454921149</v>
       </c>
       <c r="Y36" t="n">
-        <v>1945882.581681107</v>
+        <v>1947246.053281442</v>
       </c>
       <c r="Z36" t="n">
-        <v>951713.7005969977</v>
+        <v>948328.9540482425</v>
       </c>
       <c r="AA36" t="n">
-        <v>1946188.782141991</v>
+        <v>1947552.293561331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>강동친환경도시농업축제</t>
+          <t>정동야행</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>42252</v>
+        <v>42517</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>42252</v>
+        <v>42518</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>강동구청</t>
+          <t>서울 중구 정동길</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>강동 친환경 도시농업 축제는 도시농업 관련 진행사업에 대한 주민 유도 및 생태도시 강동 홍보와 도시농업단체로 구성된 축제협의회 구성 매년 짜임새 있고 책임감 있는 행사 주관으로 민·관거버넌스 구축, 도시농업을 즐기고, 어울리고, 흥미를 느낄 수 있는 풍성한 축제이다.</t>
+          <t>오월의 봄밤에 덕수궁이 있는 근대 역사의 시작, 근대 문화유산 일번지 정동일대에서 근대문화 시설을 늦은 밤 10시까지 개방하고, 곳곳에서 다양한 공연과 볼거리를 제공하여 국내외 관광객에게 색다른 문화체험의 기회를 제공하고 아름다운 추억을 간직할 수 있도록 하는 서울시 "중구" 대표축제이다.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>http://www.gangdong.go.kr/cityfarm</t>
+          <t>http://culture-night.junggu.seoul.kr/</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>사회적협동조합 관리자 02-3425-6542</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>- 유기농 먹거리(산나물전, 통밀 비빔밥, 구억배추 메밀전, 유기농 막걸리 등 건강 먹거리 판매- - 텃밭놀이, 물총파티</t>
-        </is>
-      </c>
+          <t>관리자 중구청 문화관광과 02-3396-4610</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>무료</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>강동구</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>생태자원</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>서울 송파구 풍납동 504-2</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>127.120285740706</v>
-      </c>
-      <c r="S37" t="n">
-        <v>37.5304600356395</v>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>서울 송파구 올림픽로 545</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/26331899</t>
-        </is>
-      </c>
-      <c r="V37" t="n">
-        <v>2015</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>966640.0319195093</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1947667.404607867</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>966450.6029217294</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1947973.371066547</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>서울김장문화제</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>42314</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>42316</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>서울시청광장</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>우리 고유의 김장문화를 오감으로 느낄 수 있는 축제 &lt;서울김장문화제&gt;가 11월 6일부터 8일까지 3일간 서울광장, 광화문 광장, 태평로 일대에서 개최된다. 유네스코 인류무형유산에까지 등재될 정도로 세계가 주목하는 문화이지만 정작 우리 삶 속에서 점차 사라져 가고 있는 김장문화를 재현하고 재창조해 축제가 진행된다. 서울김장문화제를 통해 소외계층에 대한 나눔문화 확산되고, 서울을 방문하는 외국인 관광객 등이 동참하는 문화축제이다. - - 손수 김장잔치(나눔)-- 김장월드(김장마켓, 먹거리, 공동체마켓, 국제청년교류마켓) -- 김장문화마을(전시, 체험, 공연, 어린이체험)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>http://seoulkimchifestival.com</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>서울김장문화제추진위원회 02-2133-4756</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>해양수산부 - 어식백세페스티벌(광화문광장)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>서울특별시/서울김장문화제추진위원회, 서울특별시사회복집협의회, (주)한국야쿠르트</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>전통역사</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>서울 중구 태평로1가 54-3</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>126.977968926957</v>
-      </c>
-      <c r="S38" t="n">
-        <v>37.5656726042805</v>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/7940285</t>
-        </is>
-      </c>
-      <c r="V38" t="n">
-        <v>2015</v>
-      </c>
-      <c r="W38" t="n">
-        <v>2</v>
-      </c>
-      <c r="X38" t="n">
-        <v>954087.1812964875</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1951634.179023069</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>953897.9112466184</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1951940.300737933</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>6시내고향토종씨앗축제</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>42474</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>42476</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>KBS홀</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>토종씨앗축제는 KBS 6시 내고향이 6000회를 맞이해 2016년 4월 14일부터 16일까지 여의도 KBS홀 앞 광장에서 열린다. 축제기간동안 토종씨앗 나눔과 함께 토종먹거리장터, 일일토종학교에 참여할 수 있다.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>http://www.kbs.co.kr/1tv/sisa/sixhour/intro/index.html</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>토종씨드림 관리자</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>KBS</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>지역특산물</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>서울 영등포구 여의도동 18</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>126.915221437055</v>
-      </c>
-      <c r="S39" t="n">
-        <v>37.52582727833621</v>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>서울 영등포구 여의공원로 13</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/11000761</t>
-        </is>
-      </c>
-      <c r="V39" t="n">
-        <v>2016</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2</v>
-      </c>
-      <c r="X39" t="n">
-        <v>948518.2454921149</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1947246.053281442</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>948328.9540482425</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1947552.293561331</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>서울아시테지겨울축제</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>42376</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>42385</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>대학로예술극장</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>어린이들의 상상이 무대에서 현실이 된다!-겨울방학, 어린이들의 오감을 자극하는 놀라운 연극체험 (제12회 서울 아시테지 겨울축제)-  사)국제아동청소년연극협회 한국본부(이하 아시테지 한국본부)가 2016년 1월 7일(목)부터 16일(토)까지 10일 동안 ‘제12회 서울 아시테지 겨울축제’를 개최한다. 이번 축제는 대학로예술극장 대극장, 아트원씨어터 2관, 동숭아트센터 동숭소극장, 마로니에공원 다목적홀 등 서울 종로구 대학로 일대에서 진행한다.-   ‘서울 아시테지 겨울축제’는 2005년부터 12년 간 10만 여명이 넘는 관객들이 방문하며 명실상부 국내 최대 아동청소년공연예술축제로 자리매김했다. ‘제12회 서울 아시테지 겨울축제’는 한 해 동안 두각을 보인 국내 극단의 수준 높은 아동극 11편으로 구성한다. -   ‘제12회 서울 아시테지 겨울축제’는 ‘상상이 현실로!’라는 주제로 열린다. 다양한 공연과 부대행사로 어린이들의 오감을 자극해 어린이들의 상상이 현실이 되는 멋진 경험의 기회를 제공하고자 한다. 겨울방학동안 아이들의 상상력과 창의력을 높이고 싶다면 제12회 서울 아시테지 겨울축제가 무엇보다 특별한 시간을 선사할 것이다.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>http://assitejkorea.org/festival/introFestival.php</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>02-745-5862</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>- 아시테지 라운드 테이블-- 어린이를 위한 연극놀이-- 전문가를 위한 워크숍</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>공연별 상이</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>지하철 4호선 혜화역</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>전석 20,000원 ※단, 배, 두둥실 : 1쌍 20,000원(어른관객 1명, 0-18개월 관객 1명 동반입장)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>(사)아시테지 한국본부</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>문화예술</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>서울 종로구 동숭동 1-67</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
-        <v>127.003228848811</v>
-      </c>
-      <c r="S40" t="n">
-        <v>37.5819682062752</v>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>서울 종로구 대학로10길 17</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/12984482</t>
-        </is>
-      </c>
-      <c r="V40" t="n">
-        <v>2016</v>
-      </c>
-      <c r="W40" t="n">
-        <v>9</v>
-      </c>
-      <c r="X40" t="n">
-        <v>956327.5233752128</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1953430.052191108</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>956138.2622783069</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1953736.125993994</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>정동야행</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>42517</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>42518</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>서울 중구 정동길</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>오월의 봄밤에 덕수궁이 있는 근대 역사의 시작, 근대 문화유산 일번지 정동일대에서 근대문화 시설을 늦은 밤 10시까지 개방하고, 곳곳에서 다양한 공연과 볼거리를 제공하여 국내외 관광객에게 색다른 문화체험의 기회를 제공하고 아름다운 추억을 간직할 수 있도록 하는 서울시 "중구" 대표축제이다.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>http://culture-night.junggu.seoul.kr/</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>관리자 중구청 문화관광과 02-3396-4610</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>[지하철]  1, 2호선 시청역 1번, 11번, 12번 출구@@ -4444,76 +4027,76 @@
  103, 150, 401, 402, 406, 604, 1711, 7016, 7022, 90S, 91S, 6005</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
         <is>
           <t>서울시 중구, 중구문화재단</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>서울 중구 충정로1가 51-11</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>126.969193559523</v>
-      </c>
-      <c r="S41" t="n">
-        <v>37.56802764579439</v>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>서울 중구 정동길 2</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/1808021895</t>
-        </is>
-      </c>
-      <c r="V41" t="n">
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>서울 중구 정동 15-5</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>126.970941412197</v>
+      </c>
+      <c r="S37" t="n">
+        <v>37.5676100269276</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>서울 중구 정동길 21-15</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/26423272</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
         <v>2016</v>
       </c>
-      <c r="W41" t="n">
-        <v>1</v>
-      </c>
-      <c r="X41" t="n">
-        <v>953313.6629700123</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1951899.791179709</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>953124.4030591059</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1952205.922327731</v>
+      <c r="W37" t="n">
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>953467.7583227286</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1951852.589862291</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>953278.4964771426</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1952158.719084875</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>서울과자북코페</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B38" s="2" t="n">
         <v>42456</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C38" s="2" t="n">
         <v>42456</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>양재 AT 센터</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>서울 과자 북코페는 ‘눈으로 먹는 과자’, ‘즐거운 과자’, ‘예쁜 과자’를 선보일 수 있도록 매회 특별한 주제를 선정하여 다채로운 즐길거리를 제공하는 서울의 대표 문화 행사이다.  어디서나 볼 수 없는 특별한 디저트만으로도 전 연령층의 마음을 사로잡기에 충분하지만 북코페는 키덜트 성격을 내포하고 있어 다양한 수공예품, 만화 캐릭터 코스튬 퍼포먼스, 가챠폰머신, 래빗토이 그리기 대회 등의 풍성한 이벤트도 진행한다.@@ -4521,107 +4104,107 @@
  다양한 연령대가 즐길 수 있기에 만족도 높은 행사로 매월 상시 개최한다.</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://bookpalcomics.com/</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>(주)북팔코믹스 02-6010-8941</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>코스튬 플레이, 래빗토이 그리기 대회, 가챠폰머신, 현장 이벤트 등</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>자유</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>전 연령 가능</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>1인 5,000원 (48개월 이상 동일)</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>(주)북팔코믹스</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>경연사업</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>서울 서초구 양재동 232</t>
         </is>
       </c>
-      <c r="R42" t="n">
+      <c r="R38" t="n">
         <v>127.0390277719438</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S38" t="n">
         <v>37.46844182646262</v>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>서울 서초구 강남대로 27</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/16057154</t>
         </is>
       </c>
-      <c r="V42" t="n">
+      <c r="V38" t="n">
         <v>2016</v>
       </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
         <v>959426.8474039785</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y38" t="n">
         <v>1940818.808423634</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="Z38" t="n">
         <v>959237.3735601706</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AA38" t="n">
         <v>1941124.936805412</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>서울장미축제</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B39" s="2" t="n">
         <v>42510</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C39" s="2" t="n">
         <v>42512</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>중화체육공원</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>서울에서 가장 예쁜, 2016 서울장미축제가 2016년 5월 20일 금요일 부터 5월 22일 일요일 까지 3일간 장미터널(거리공연), 수림대공원(무대), 중화체육공원(무대) 중랑천로(로즈마켓) 일대에서 펼쳐집니다. 축제를 기다리는 설레임으로 중랑천을 꽃잎으로 물들이고, 세계적으로 아름다움을 인정받는 한복은 서울장미축제의 드레스 코드 입니다.  상시프로그램 : 장미마켓&amp;체험부스, 중랑아티스트 거리공연@@ -4631,17 +4214,17 @@
 리틀로즈 프로그램(5월 7일 ~ 5월 19일) 장미마라톤대회, 중랑아티스트 거리공연</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://seoulrose.jungnang.seoul.kr</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>중랑구청/중랑문화원 관리자 중랑구청 문화체육과 02-2094-1832</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>로즈마켓 : 장미생화, 장미방향제, 장미솜사탕, 장미마카롱 등 장미에 관한 모든 것을 판매 숲속어린이 장미체험 : 숲해설가와 함께하는 장미 이야기 체험(사전접수)@@ -4652,511 +4235,418 @@
 기타 : 캐리커쳐, 장미타투, 전통놀이체험, 장미 소품 만들기 마당  등</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>중랑구청</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>서울 중랑구 중화동 345-2</t>
         </is>
       </c>
-      <c r="R43" t="n">
+      <c r="R39" t="n">
         <v>127.073170907634</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S39" t="n">
         <v>37.6038396714405</v>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/2121446801</t>
         </is>
       </c>
-      <c r="V43" t="n">
+      <c r="V39" t="n">
         <v>2016</v>
       </c>
-      <c r="W43" t="n">
-        <v>2</v>
-      </c>
-      <c r="X43" t="n">
+      <c r="W39" t="n">
+        <v>3</v>
+      </c>
+      <c r="X39" t="n">
         <v>962514.0365002791</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Y39" t="n">
         <v>1955826.339960149</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="Z39" t="n">
         <v>962324.7616605184</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AA39" t="n">
         <v>1956132.302240276</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>연예인과함께하는희망나눔페스티벌</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B40" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C40" s="2" t="n">
         <v>42554</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>SETEC</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>사회 취약계층 어린이들에게 수술·치료비 지원을 목적으로 개최되는 이번 행사에는 유명 연예인과 스포츠인, 정치인 등 많은 분들이 동참하여 진행될 예정이며, 특히 연예인 야구단은 팀별로 부스를 마련해 개개인의 애장품 기부, 사인볼 경매, 기부 물품 전시 및 직접 구매 기회도 마련된다.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.e-hanryu.com</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>㈜한류닷컴 / ㈜브릿지경제신문사 관리자 1800-0565</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>2시간</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>5세 이상</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
         <is>
           <t>6,000원</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>(사)국회입법정책연구회</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>서울 강남구 대치동 514</t>
         </is>
       </c>
-      <c r="R44" t="n">
+      <c r="R40" t="n">
         <v>127.072196986216</v>
       </c>
-      <c r="S44" t="n">
+      <c r="S40" t="n">
         <v>37.4959006734666</v>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>서울 강남구 남부순환로 3104</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/8360965</t>
         </is>
       </c>
-      <c r="V44" t="n">
+      <c r="V40" t="n">
         <v>2016</v>
       </c>
-      <c r="W44" t="n">
-        <v>2</v>
-      </c>
-      <c r="X44" t="n">
+      <c r="W40" t="n">
+        <v>3</v>
+      </c>
+      <c r="X40" t="n">
         <v>962373.7528883955</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Y40" t="n">
         <v>1943851.407416143</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="Z40" t="n">
         <v>962184.3009549745</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AA40" t="n">
         <v>1944157.467767001</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>서대문,1919그날의함성!</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B41" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C41" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>서대문형무소역사관</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>전 세계에 대한의 독립을 선포하고 온국민이 하나되어 전개하였던 3.1 독립만세운동을 시민과 함께 재현하고, 독립운동가의 자유와 평화 정신을 체험하고 공유하는 다양한 체험프로그램을 진행하여 시민들과 하나되는 화합의 장이 펼쳐지는 3.1절 기념 축제이다.</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://blog.naver.com/sphh100</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>관리자 02-360-8590</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>- 소형 수기 태극기 무료배포: 1,000개(11:00)   - 행사 참여 가정 게양용 태극기 판매: 500개(2,000원/개당)   - 독립운동가 퍼포먼스: 당시 상황 재현 배우가 관람객과 사진 촬영</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>기간 내 자유</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>전 연령 가능</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>* 지하철 : 3호선 독립문  * 버스 : 99, N37, 471, 701</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>서대문구도시관리공단, 서대문형무소역사관</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>서울 서대문구 현저동 101</t>
         </is>
       </c>
-      <c r="R45" t="n">
+      <c r="R41" t="n">
         <v>126.956317537471</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S41" t="n">
         <v>37.574507144904</v>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>서울 서대문구 통일로 251</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/7936297</t>
         </is>
       </c>
-      <c r="V45" t="n">
+      <c r="V41" t="n">
         <v>2016</v>
       </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
         <v>952180.7103420696</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Y41" t="n">
         <v>1952625.150830243</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="Z41" t="n">
         <v>951991.4703203586</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AA41" t="n">
         <v>1952931.293098099</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>궁중문화축전</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>42489</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>42498</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>창덕궁</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>우리 궁궐의 아름다운 유ㆍ무형 유산을 첨단기술, 예술적 감각과 함께 만나보는 신선한 경험 &lt;궁중문화축전&gt;이 4대궁 및 종묘에서 개최된다. 따뜻한 봄날, 경험궁궐별 특색 있는 프로그램이 선사하는 잊지 못할 감동을 느낄 수 있다.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>http://www.royalculturefestival.org</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>한국문화재재단, (사)대한황실문화원 관리자 1330</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>경복궁 : 지하철 3호선 경복궁역- 창덕궁 : 버스 100, 102, 104, 90S투어, 91S투어- 창경궁 : 버스 100, 102, 104, 90S투어, 91S투어- 덕수궁 : 지하철 1호선, 2호선 시청역- 종묘 : 지하철 3호선, 5호선 종로3가역</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>문화재청, 궁중문화축전추진워원회</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>서울 종로구 와룡동 2-71</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>126.992917692675</v>
-      </c>
-      <c r="S46" t="n">
-        <v>37.5784974096598</v>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>서울 종로구 율곡로 99</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/26333984</t>
-        </is>
-      </c>
-      <c r="V46" t="n">
-        <v>2016</v>
-      </c>
-      <c r="W46" t="n">
-        <v>9</v>
-      </c>
-      <c r="X46" t="n">
-        <v>955415.0276086197</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1953049.831353766</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>955225.7681195475</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1953355.921844419</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>우유의날행사&amp;국내산치즈페스티벌</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B42" s="2" t="n">
         <v>42518</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C42" s="2" t="n">
         <v>42519</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>뚝섬한강공원</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>6월 1일, 세계 우유의 날을 맞이하여 5월 28일(토)와 29일(일) 양일간, 낙농가, 유업체, 관련기관 등의 전 낙농계와 소비자가 함께 모여 소통할 수 있는 교류의 장을 마련코자 한 행사이다.  우유의 날이라는 행사 안에는 도심속목장나들이, 유업체들의 우유 및 유제품 시식, 홍보부스, 목장형유가공 낙농가들의 국내산 치즈페스티벌 행사, 우유의 날 자체 행사프로그램 등으로 구성되어 있으며, 경기방송 FM 99.9에서 별도의 공개방송이 5.28(토) 17:30부터 19:30까지 2시간동안 진행될 예정이며, 다수의 초청가수들의 공연 등도 진행될 예정이다.  우유의 날 행사는 우유자조금관리위원회 주최이며, 국내산 치즈페스티벌은 우유자조금관리위원회와 농협중앙회가 공동으로 주관하는 행사이다.</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.imilk.or.kr</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>관리자 02-588-7202~3</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>무료입장</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>우유자조금관리위원회, 농협중앙회</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>서울 광진구 자양동 158-17</t>
         </is>
       </c>
-      <c r="R47" t="n">
+      <c r="R42" t="n">
         <v>127.060017751885</v>
       </c>
-      <c r="S47" t="n">
+      <c r="S42" t="n">
         <v>37.53243778800029</v>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>서울 광진구 강변북로 6</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/17555819</t>
         </is>
       </c>
-      <c r="V47" t="n">
+      <c r="V42" t="n">
         <v>2016</v>
       </c>
-      <c r="W47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X47" t="n">
+      <c r="W42" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" t="n">
         <v>961316.049675125</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Y42" t="n">
         <v>1947909.95180641</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="Z42" t="n">
         <v>961126.6665460936</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AA42" t="n">
         <v>1948215.995505079</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>개화산해맞이행사</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C43" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>강서구 개화산</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>서울 강서구는 2016년(병신년) 새해를 맞아 주민들과 함께 행복과 번영을 기원하는 해맞이 행사를 개최한다.   이 날 행사는 2016년 1월 1일 개화산 정상 해맞이공원에서 6시 40분부터 약 1시간 20분 동안 진행된다.  식전행사로 사물놀이, 길놀이, 민요를 준비, 주민들의 기운과 흥을 돋울 예정이며 한 해를 설계하는 다짐과 소망을 적어 개화산 정상에 달아놓음으로써 새해 소망이 떠오르는 해처럼 희망차게 이루어질 수 있도록 하였다. 새해 첫날 서울시 일출 예정시각은 오전 7시 47분이다.</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>강서구청 http://www.gangseo.seoul.kr</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>관리자 02-2600-6455</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>- 소망엽서 보내기 : 봉함엽서 작성 소망우체통 투입 후 2개월 경과 후 배달(강서우체국 협조)  - 포토존 운영 : 허준 의녀 탈 등</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>시간 내 자유</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>전 연령 가능함</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>* 지하철 이용 시   5호선 방화역 3번출구 - 영신교회 옆길로 쭉 올라가면, 약사사 뒷편 개화산 정상 @@ -5167,285 +4657,285 @@
 차량 이용불가, 대중교통을 이용하여 주시기 바랍니다.</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>강서구청</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>서울 강서구 방화동 533-9</t>
         </is>
       </c>
-      <c r="R48" t="n">
+      <c r="R43" t="n">
         <v>126.8076251629077</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S43" t="n">
         <v>37.57196382081579</v>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>서울 강서구 양천로6길 15</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/11840089</t>
         </is>
       </c>
-      <c r="V48" t="n">
+      <c r="V43" t="n">
         <v>2016</v>
       </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
         <v>939048.4705309995</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Y43" t="n">
         <v>1952429.147928112</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="Z43" t="n">
         <v>938859.3323942282</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AA43" t="n">
         <v>1952735.489002625</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>인왕산청운공원해맞이축제</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B44" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C44" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>인왕산 청운공원</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>새로운 다짐과 희망의 병신년, 떠오르는 해맞이를 통해 새해 소망하는 모든 일이 이루어 질 수 있도록 기원하는 ‘인왕산 청운공원 해맞이 축제’를 개최한다. 새해소망 가훈 써주기, 풍물패한마당, 한국무용 등 다양한 프로그램이 준비되어 있으니 구민 여러분의 많은 참여 바란다.</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.jongno.go.kr/portalMain.do</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>관리자 02-731-1701</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
         <is>
           <t>시간 내 자유</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>전 연령 가능함</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>09번 마을버스운행 (06:00～08:00) 유료 20분간격운행  운행정류장,  마을버스종점 ～ 하나롬슈퍼 ～통인시장정자 오거리～형제슈퍼앞～청운효자동자치센터～최규식동상앞</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>청운효자동주민자치위원회</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>서울 종로구 청운동 7-4</t>
         </is>
       </c>
-      <c r="R49" t="n">
+      <c r="R44" t="n">
         <v>126.96635794202</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S44" t="n">
         <v>37.5910022168413</v>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/11635112</t>
         </is>
       </c>
-      <c r="V49" t="n">
+      <c r="V44" t="n">
         <v>2016</v>
       </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
         <v>953077.6859173531</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Y44" t="n">
         <v>1954450.149083876</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="Z44" t="n">
         <v>952888.4660317274</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AA44" t="n">
         <v>1954756.263242573</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>한부모가족모두하나대축제</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B45" s="2" t="n">
         <v>42539</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C45" s="2" t="n">
         <v>42539</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>서울시청광장</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>제5회 서울특별시 한부모가족 대축제는「함께 만들고!  함께 나누고!  함께 누리는! 한부모가족」이라는 테마로 한부모가족이 이 사회의 소외된 가족형태가 아닌 다양한 가족형태의 하나임을 인식하고 사회적 편견이 해소 될 수 있도록 한부모가족, 서울시민, 유관기관 관계자 모두가 소통과 공유, 성장이 있는 축제이다.</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://seoulhanbumo.or.kr</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>서울특별시한부모가족지원센터 관리자 02-861-3020</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
         <is>
           <t>서울특별시</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>서울 중구 태평로1가 54-3</t>
         </is>
       </c>
-      <c r="R50" t="n">
+      <c r="R45" t="n">
         <v>126.977968926957</v>
       </c>
-      <c r="S50" t="n">
+      <c r="S45" t="n">
         <v>37.5656726042805</v>
       </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/7940285</t>
         </is>
       </c>
-      <c r="V50" t="n">
+      <c r="V45" t="n">
         <v>2016</v>
       </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
         <v>954087.1812964875</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Y45" t="n">
         <v>1951634.179023069</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="Z45" t="n">
         <v>953897.9112466184</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AA45" t="n">
         <v>1951940.300737933</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>응봉산해맞이축제</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B46" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C46" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>응봉산 팔각정</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>새해를 맞아 1월 1일(금) 응봉산 팔각정에서 &lt;2016 해맞이축제&gt;가 개최된다.  떠오르는 새해의 첫 해를 바라보며 한 해 소망과 건강을 기원하는 이날 축제는 풍물공연을  시작으로 새해 첫 북 타고, 해맞이 축가 등 다양한 해맞이 행사가 펼쳐지고 새해 소망지 걸기 등 다채로운 부대행사도 진행된다.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>성동구청 http://www.sd.go.kr</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>문화체육과 문화관광팀 관리자 02-2286-5207</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>- 새해 희망 소망지 걸기  - 희망 편지 쓰기@@ -5453,318 +4943,318 @@
  - 먹거리 코너 등</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>시간 내 자유</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>전 연령 가능함</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>지하철 중앙선 응봉역 하차</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>성동구</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>서울 성동구 응봉동 269-4</t>
         </is>
       </c>
-      <c r="R51" t="n">
+      <c r="R46" t="n">
         <v>127.030807371035</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S46" t="n">
         <v>37.5482958069537</v>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>서울 성동구 독서당로60길 13-1</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/24876765</t>
         </is>
       </c>
-      <c r="V51" t="n">
+      <c r="V46" t="n">
         <v>2016</v>
       </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
         <v>958743.9701169226</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Y46" t="n">
         <v>1949681.760207559</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="Z46" t="n">
         <v>958554.6338322362</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AA46" t="n">
         <v>1949987.828051923</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>전쟁기념관어린이날문화축제</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B47" s="2" t="n">
         <v>42495</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C47" s="2" t="n">
         <v>42495</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>서울 용산구 전쟁기념관 평화광장</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>전쟁기념관은 어린이날을 맞아 온 가족이 함께 즐길 수 있는 ‘어린이날 문화축제’를 개최한다. 행사는 5월 5일 오전 10시부터 오후 4시까지 진행되며, 선착순 1,000명의 어린이들에게 소정의 선물도 증정한다. 사전예약프로그램은 4월 26일부터 홈페이지를 통해 선착순으로 접수 받으며, 행사 당일에는 13개의 다양한 무료 체험 부스행사와 무료 공연이 시간대별로 운영된다. 특히 &lt;특전사 특공무술 시범공연&gt;, &lt;국군 군악·의장행사&gt;, &lt;수방사 모터사이카 퍼레이드&gt;는 어린이날 전쟁기념관에서만 만나볼 수 있는 특별행사다. 행사와 관련해 자세한 문의사항은 전쟁기념관 홈페이지(www.warmemo.or.kr) 또는 709-3139로 문의하면 된다.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.warmemo.or.kr</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>관리자 교육홍보부 홍보팀 02-709-3108</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>기간내 자유</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>전연령 가능함</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>* 4호선 삼각지역 1번 출구에서 도보로 5분 거리, 6호선 삼각지역 11,12번 출구에서 도보로 3분 거리  * 1호선 남영역에서 내려 도보로 10분 거리</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>체험별 상이 (유/무료)</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>전쟁기념관</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>서울 용산구 용산동1가 8</t>
         </is>
       </c>
-      <c r="R52" t="n">
+      <c r="R47" t="n">
         <v>126.977167525112</v>
       </c>
-      <c r="S52" t="n">
+      <c r="S47" t="n">
         <v>37.53607645899179</v>
       </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/17578203</t>
         </is>
       </c>
-      <c r="V52" t="n">
+      <c r="V47" t="n">
         <v>2016</v>
       </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
         <v>953998.1932316528</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Y47" t="n">
         <v>1948351.006400368</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="Z47" t="n">
         <v>953808.8748082533</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AA47" t="n">
         <v>1948657.155775208</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>지구촌나눔한마당</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B48" s="2" t="n">
         <v>42497</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C48" s="2" t="n">
         <v>42498</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>서울시청광장</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>올해로 19회를 맞는 도심 속 최대 다문화 축제가 5월 첫째주 주말 서울광장과 무교동 거리에서 펼쳐진다. 세계 60여개국의 음식전과 풍물전, 14개 300여명 해외자매도시 공연단 초청공연, 세계의상 체험전, 뮤직카페, 니눔 이벤트 등 다채로운 행사가 펼쳐진다.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.seoulfriendshipfair.org</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>서울특별시청, 주한대사관 관리자 02-2133-5294</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>- 세계음식전  - 세계관광홍보전  - 지구촌 나눔존</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>3-4시간 정도</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>전연령 가능함</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>서울특별시</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>생태자원</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>서울 중구 태평로1가 54-3</t>
         </is>
       </c>
-      <c r="R53" t="n">
+      <c r="R48" t="n">
         <v>126.977968926957</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S48" t="n">
         <v>37.5656726042805</v>
       </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/7940285</t>
         </is>
       </c>
-      <c r="V53" t="n">
+      <c r="V48" t="n">
         <v>2016</v>
       </c>
-      <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="n">
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
         <v>954087.1812964875</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Y48" t="n">
         <v>1951634.179023069</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="Z48" t="n">
         <v>953897.9112466184</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AA48" t="n">
         <v>1951940.300737933</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>아차산해맞이축제</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B49" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C49" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>아차산 해맞이명소</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>떠오르는 붉은 태양의 기운을 받으며 마음을 다잡고 한 해 소망도 빌어보는 새해 첫 해맞이, 해돋이를 보기 위해 교통대란을 겪으며 굳이 동해안으로 떠날 필요 없이 서울에서 가장 먼저 해를 볼 수 있는 아차산이 있다. 아차산은 지하철역 5호선 광나루역 1번 출구에서 약 15분 정도만 오르면 도착할 수 있어 교통이 편리할 뿐만 아니라 산세가 완만하고 등산로가 잘 정비되어 있어 남녀노소 누구나 부담 없이 새해 첫 일출을 감상할 수 있는 해맞이 명소이다.   2000년 1월 1일, 광진구가 서울시에서는 처음으로 시작한 &lt;아차산 해맞이 축제&gt;는 매년 새해를 출하하는 문화공연 외에도 새해 소망을 기원할 수 있는 다양한 부대행사를 함께 운영하고 있어, 매년 4만 명 이상의 시민들이 모여드는 서울시의 대표적인 해맞이 행사로 자리 잡고 있다. 2016년 1월 1일에도 역시 시민들을 위한 다양한 부대 행사를 운영할 예정으로 아차산 입구에 설치된 희망의 문을 통과하여 해맞이 광장까지 가는 등산로를 따라 한해의 시작을 밝히는 250개의 청사초롱이 새벽녘 인파를 비추며, 토요한마당 무대에서는 지난해의 나쁜 기운을 몰아내고 길운을 불러들인다는 희망의 북울리기, 병신년을 상징하는 원숭이 캐릭터와 함께 추억을 담는 포토존, 윷으로 올해 운수를 점 쳐보는 윷 점보기 등 아차산을 찾은 시민들이 희망찬 마음으로 새해를 맞이할 수 있도록 다양한 행사가 준비되어 있다.</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.gwangjin.go.kr</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>광진구 문화체육과 관리자 02-450-7575</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>- 희망의 문 설치  - 희망의 길 밝히기(청사초롱 250개 설치)@@ -5773,18 +5263,18 @@
  - 포토존 운영, 떡국 나눔</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>자유</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>전 연령 가능함</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>[지하철] 5호선 광나루역 (도보 약 40분 소요) @@ -5794,184 +5284,184 @@
 2번 출구 → 영화사 → 동의초등학교 → 아차산 주차장 → 등산로 → 해맞이광장</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>광진구</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>서울 광진구 구의동 3-8</t>
         </is>
       </c>
-      <c r="R54" t="n">
+      <c r="R49" t="n">
         <v>127.1027646828896</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S49" t="n">
         <v>37.55619289827412</v>
       </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/1401996980</t>
         </is>
       </c>
-      <c r="V54" t="n">
+      <c r="V49" t="n">
         <v>2016</v>
       </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="n">
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
         <v>965103.9711032823</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Y49" t="n">
         <v>1950528.709480037</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="Z49" t="n">
         <v>964914.5968174521</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AA49" t="n">
         <v>1950834.675845461</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>하늘공원해맞이행사</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B50" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C50" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>하늘공원</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>매년 1월 1일 하늘공원에서 &lt;하늘공원해맞이행사&gt;가 진행된다. 한해를 마무리하며 2016년 병신년을 맞이하여 시민들의 소망과 안녕을 기원하는 행사이다.</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>관리자 02-3153-8355</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>행사기간 내 자유</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
         <is>
           <t>연령 제한없음</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
         <is>
           <t>마포구청</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>서울 중구 명동2가 54-12</t>
         </is>
       </c>
-      <c r="R55" t="n">
+      <c r="R50" t="n">
         <v>126.983923208059</v>
       </c>
-      <c r="S55" t="n">
+      <c r="S50" t="n">
         <v>37.5631183398281</v>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>서울 중구 명동8길 8-13</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/15091645</t>
         </is>
       </c>
-      <c r="V55" t="n">
+      <c r="V50" t="n">
         <v>2016</v>
       </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="n">
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
         <v>954611.4772376074</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Y50" t="n">
         <v>1951347.897255463</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="Z50" t="n">
         <v>954422.1987296515</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AA50" t="n">
         <v>1951654.013432051</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>응봉산개나리축제</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B51" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C51" s="2" t="n">
         <v>42463</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>응봉산 팔각정</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>봄과 희망을 상징하는 개나리꽃의 명소인 응봉산에서 어린이들에게는 꿈과 희망을, 동행한 학부모(구민)에게는 낭만과 추억이 깃든 즐거운 한마당 축제를 개최한다. 올해로 19회를 맞이하는 &lt;2016 응봉산 개나리축제&gt;는 4월 1일 금요일부터 시작된다. 성동구와 성동문인협회/성동미술협회가 주최·주관하는 이번 축제는 응봉산 팔각정에서 진행된다.</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>성동구청 http://sd.go.kr</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>성동구청 문화체육과 관리자 02-2286-5206</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>- 노랑개나리 찰칵 (셀카마당, 포토존) - 캘리그라피 가훈써주기@@ -5985,14 +5475,14 @@
 - 먹거리장터</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>기간 내 자유</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
         <is>
           <t>[지하철] 중앙선 응봉역 하자@@ -6000,193 +5490,193 @@
 241B, 110B, 241A, 2016, 2411</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>성동구</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>서울 성동구 응봉동 269-4</t>
         </is>
       </c>
-      <c r="R56" t="n">
+      <c r="R51" t="n">
         <v>127.030807371035</v>
       </c>
-      <c r="S56" t="n">
+      <c r="S51" t="n">
         <v>37.5482958069537</v>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>서울 성동구 독서당로60길 13-1</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/24876765</t>
         </is>
       </c>
-      <c r="V56" t="n">
+      <c r="V51" t="n">
         <v>2016</v>
       </c>
-      <c r="W56" t="n">
-        <v>2</v>
-      </c>
-      <c r="X56" t="n">
+      <c r="W51" t="n">
+        <v>3</v>
+      </c>
+      <c r="X51" t="n">
         <v>958743.9701169226</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Y51" t="n">
         <v>1949681.760207559</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="Z51" t="n">
         <v>958554.6338322362</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AA51" t="n">
         <v>1949987.828051923</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>C-Festival(씨페스티벌)</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B52" s="2" t="n">
         <v>42494</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C52" s="2" t="n">
         <v>42498</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>코엑스</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>친구, 연인, 가족이 모두 함께 즐길 수 있는 서울 도심 속 최고의 축제, 씨-페스티벌! 퍼레이드/콘서트/전시컨벤션을 아우르는 2016 씨-페스티벌은 글로벌 No.1 마이스(MICE) 산업을 선도하는 코엑스가 준비한 우리 모두를 위한 페스티벌이다. 5월 4일(수)부터 8일(일)까지 서울 삼성동 코엑스 일대에서 진행되며, 아시아 최대 사진영상기자재전부터 씨샵(C), 아트토이, 문화놀이터, 수제맥주축제, 벌룬퍼레이드, 케이팝 콘서트 등으로 5일 내내 풍성한 행사가 준비되어 있다. 자신의 취향에 따라 전시컨벤션코드부터 나들이코드, 일상탈출코드, 설렘코드, 힐링코드 등 내 코드에 딱 맞는 코스대로 축제를 즐길 수 있다.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.c-festival.com</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>한국무역협회, 코엑스 관리자 02-6000-8120</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>[컨퍼런스]   글로벌 스타트업 컨퍼런스 2016 - 컨퍼런스룸(5/4)</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t>코엑스 1층 홀 앞 및 무역센터 일대</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>[야외 &amp; 로비 프로그램] 무료 [C (전시장)]성인 8,000원/중·고등학생 6,000원/P&amp;I; - 10,000원[아트토이컬쳐] 성인 12,000원/중·고등학생 10,000원/어린이 8,000</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>한국무역협회, 코엑스</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>서울 강남구 삼성동 159</t>
         </is>
       </c>
-      <c r="R57" t="n">
+      <c r="R52" t="n">
         <v>127.058798411617</v>
       </c>
-      <c r="S57" t="n">
+      <c r="S52" t="n">
         <v>37.5126307611884</v>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>서울 강남구 영동대로 513</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/26437384</t>
         </is>
       </c>
-      <c r="V57" t="n">
+      <c r="V52" t="n">
         <v>2016</v>
       </c>
-      <c r="W57" t="n">
-        <v>4</v>
-      </c>
-      <c r="X57" t="n">
+      <c r="W52" t="n">
+        <v>5</v>
+      </c>
+      <c r="X52" t="n">
         <v>961198.0430894487</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Y52" t="n">
         <v>1945712.967918863</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="Z52" t="n">
         <v>961008.6281777843</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AA52" t="n">
         <v>1946019.030931892</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>자연휴양림휴문화한마당</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B53" s="2" t="n">
         <v>42496</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C53" s="2" t="n">
         <v>42498</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>2호선 뚝섬역</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2016년 자연휴양림 “휴” 문화한마당은 「도심 속 휴양림으로의 초대」를 주제로 도심 속에서 전국 자연휴양림의 다양한 프로그램을 만나는 기회를 통해, 숲이 전하는 휴양과 교육 그리고 문화의 즐거움을 함께 나누고자 마련되었다.</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.2016forest.kr</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>후원: 서울특별시, EBS 관리자 운영사무국(032-890-4861)</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>1. 공 연 :      ❍ 숲속 퓨전타악  RUN@@ -6195,480 +5685,480 @@
      ❍ 숲속 버스킹 / 숲속 버블쇼 / 어쿠스틱 크로스오버 / 휴양림클래식 등.</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>2시간</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
         <is>
           <t>전 연령 가능</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
         <is>
           <t>입장료 없음</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>산림청·국립자연휴양림관리소</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>생태자원</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>서울 성동구 성수동1가 656-284</t>
         </is>
       </c>
-      <c r="R58" t="n">
+      <c r="R53" t="n">
         <v>127.04738727881</v>
       </c>
-      <c r="S58" t="n">
+      <c r="S53" t="n">
         <v>37.547241554679</v>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>서울 성동구 아차산로 18</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/21160627</t>
         </is>
       </c>
-      <c r="V58" t="n">
+      <c r="V53" t="n">
         <v>2016</v>
       </c>
-      <c r="W58" t="n">
+      <c r="W53" t="n">
+        <v>3</v>
+      </c>
+      <c r="X53" t="n">
+        <v>960207.9877083539</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1949557.63753147</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>960018.6379283619</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1949863.684545014</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>서울드럼페스티벌</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>42517</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>42518</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>서울시청광장</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>올해로 18회를 맞이하는 서울드럼페스티벌은 서울을 대표하는 세계적인 축제입니다. 봄을 맞이하여 역동적인 두드림을 느낄수 있는 서울드럼페스티벌은 단순히 보고 듣는 축제가 아닌, 직접 타악의 예술을 체험하고 남녀노소 누구나 즐길수 있는 공연예술축제입니다.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>www.seouldrum.go.kr</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>070-5057-2722</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>기간내자유</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>전연령 가능</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>서울드럼페스티벌 운영사무국</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>서울 중구 태평로1가 54-3</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>126.977968926957</v>
+      </c>
+      <c r="S54" t="n">
+        <v>37.5656726042805</v>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/7940285</t>
+        </is>
+      </c>
+      <c r="V54" t="n">
+        <v>2016</v>
+      </c>
+      <c r="W54" t="n">
         <v>2</v>
       </c>
-      <c r="X58" t="n">
-        <v>960207.9877083539</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1949557.63753147</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>960018.6379283619</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1949863.684545014</v>
+      <c r="X54" t="n">
+        <v>954087.1812964875</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1951634.179023069</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>953897.9112466184</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1951940.300737933</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>서울드럼페스티벌</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>42517</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>42518</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>서울시청광장</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>올해로 18회를 맞이하는 서울드럼페스티벌은 서울을 대표하는 세계적인 축제입니다. 봄을 맞이하여 역동적인 두드림을 느낄수 있는 서울드럼페스티벌은 단순히 보고 듣는 축제가 아닌, 직접 타악의 예술을 체험하고 남녀노소 누구나 즐길수 있는 공연예술축제입니다.</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>www.seouldrum.go.kr</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>070-5057-2722</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>기간내자유</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>전연령 가능</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>서울드럼페스티벌 운영사무국</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>서울 중구 태평로1가 54-3</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>126.977968926957</v>
-      </c>
-      <c r="S59" t="n">
-        <v>37.5656726042805</v>
-      </c>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/7940285</t>
-        </is>
-      </c>
-      <c r="V59" t="n">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>신촌뷰티페스티벌</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>42497</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>42498</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>신촌 연세로</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>서대문구에서는 봄 여행주간을 맞아 신촌만의 아름다움을 널리 알리고, 주민 및 국내외 관광객을 위한 즐거운 관광콘텐츠를 제공하기 위해 신촌 연세로에서 2016 신촌 뷰티 페스티벌을 개최한다.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>무언가 관리자 02-330-1672</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>무료 (일부 유료)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>신촌동주민자치원회</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>문화예술</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>서울 서대문구 창천동 72-10</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>126.934924586377</v>
+      </c>
+      <c r="S55" t="n">
+        <v>37.556293567912</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>서울 서대문구 연세로5다길 9</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/13323880</t>
+        </is>
+      </c>
+      <c r="V55" t="n">
         <v>2016</v>
       </c>
-      <c r="W59" t="n">
-        <v>1</v>
-      </c>
-      <c r="X59" t="n">
-        <v>954087.1812964875</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1951634.179023069</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>953897.9112466184</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1951940.300737933</v>
+      <c r="W55" t="n">
+        <v>2</v>
+      </c>
+      <c r="X55" t="n">
+        <v>950279.5077837857</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1950615.542165387</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>950090.2528336975</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1950921.729046093</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>신촌뷰티페스티벌</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="n">
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>커플런</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
         <v>42497</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>42498</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>신촌 연세로</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>서대문구에서는 봄 여행주간을 맞아 신촌만의 아름다움을 널리 알리고, 주민 및 국내외 관광객을 위한 즐거운 관광콘텐츠를 제공하기 위해 신촌 연세로에서 2016 신촌 뷰티 페스티벌을 개최한다.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>무언가 관리자 02-330-1672</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>무료 (일부 유료)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>신촌동주민자치원회</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>문화예술</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>서울 서대문구 창천동 72-23</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>126.933538916818</v>
-      </c>
-      <c r="S60" t="n">
-        <v>37.55675771068471</v>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>서울 서대문구 연세로5다길 35</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/23993444</t>
-        </is>
-      </c>
-      <c r="V60" t="n">
-        <v>2016</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1</v>
-      </c>
-      <c r="X60" t="n">
-        <v>950157.427384367</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>1950667.771801902</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>949968.1741891311</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1950973.960092456</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>커플런</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="n">
+      <c r="C56" s="2" t="n">
         <v>42497</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>42497</v>
-      </c>
-      <c r="D61" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>뚝섬한강공원</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>일상적인 데이트에 지친 커플들을 위한 둘만의 마라톤 축제. 다양한 부대 프로그램과 체험행사, 달달한 콘서트. 이색 데이트 마라톤 커플런이다.</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.facebook.com/couplerun/?fref=ts</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>관리자</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>- 너의 눈 코 입, 이름시, 커플 캐리커쳐, 성지식 퀴즈, 진실게임, "야"한 19금 타로, 다양한 런미션 등</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
         <is>
           <t>전연령 가능</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
         <is>
           <t>1인 35,000원 / 2인 65,000원</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>무언가</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>서울 광진구 자양동 158-17</t>
         </is>
       </c>
-      <c r="R61" t="n">
+      <c r="R56" t="n">
         <v>127.060017751885</v>
       </c>
-      <c r="S61" t="n">
+      <c r="S56" t="n">
         <v>37.53243778800029</v>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>서울 광진구 강변북로 6</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/17555819</t>
         </is>
       </c>
-      <c r="V61" t="n">
+      <c r="V56" t="n">
         <v>2016</v>
       </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
+      <c r="W56" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" t="n">
         <v>961316.049675125</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Y56" t="n">
         <v>1947909.95180641</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="Z56" t="n">
         <v>961126.6665460936</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AA56" t="n">
         <v>1948215.995505079</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>압구정로데오힐링페스티벌</t>
         </is>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B57" s="2" t="n">
         <v>42496</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C57" s="2" t="n">
         <v>42497</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>압구정 로데오거리</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>압구정로데오 힐링페스티벌은 2016년 5월 6일부터 2016년 5월 7일까지 2일간 압구정로데오에서 열린다.</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.fiestaplan11.com</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>관리자 02-586-5313</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>- SNS 미션 &amp; 경품이벤트    -  점포 20% ~ 80%  할인 이벤트 진행(축제 당일 해당 점포 소개 팜플렛 제공)    - 압구정로데오 상권 로드맵(맛집, 핫플레이스 소개 및 추천코스가 명시된 아트맵) 설치</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
         <is>
           <t>무료(무대공연 및 일부 체험부스 유료)</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>피에스타플래너즈</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
         <is>
           <t>서울 강남구 신사동 668-33</t>
         </is>
       </c>
-      <c r="R62" t="n">
+      <c r="R57" t="n">
         <v>127.039152029523</v>
       </c>
-      <c r="S62" t="n">
+      <c r="S57" t="n">
         <v>37.5267558230172</v>
       </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/7990409</t>
         </is>
       </c>
-      <c r="V62" t="n">
+      <c r="V57" t="n">
         <v>2016</v>
       </c>
-      <c r="W62" t="n">
-        <v>1</v>
-      </c>
-      <c r="X62" t="n">
+      <c r="W57" t="n">
+        <v>2</v>
+      </c>
+      <c r="X57" t="n">
         <v>959469.4160437532</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Y57" t="n">
         <v>1947288.367788259</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="Z57" t="n">
         <v>959280.0383115818</v>
       </c>
-      <c r="AA62" t="n">
+      <c r="AA57" t="n">
         <v>1947594.443975601</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>땡큐페스티벌(ThankUFestival)</t>
         </is>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B58" s="2" t="n">
         <v>42539</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C58" s="2" t="n">
         <v>42539</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>상암 MBC</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>땡큐페스티벌은 호국보훈땡큐퍼레이드와 특집콘서트 "고맙습니다"로 구성되어 있다. 호국보훈 땡큐퍼레이드 &lt;나라사랑하는 마음으로 함께 걸어요&gt;는 6월 호국보훈의 달을 맞아 호국·보훈 정신으로 국가유공자분들을 예우하고 제복 근무자에 대한 존경과   감사의 퍼레이드 퍼레이드 대열을 크게 4개 섹터(호․국․보․훈)로 구성되어 있으며, 특집콘서트 “고맙습니다”는 국내 최고의 가수와 온 가족이 함께 부르는 노래, 고마운 사람에게 전하는 마음이 함께 하는 생생한 축제의 현장! DMC페스티벌로 대한민국 축제의 새로운 장을 연 상암 문화 광장에서 오는 6월, 2016 땡큐 페스티벌 특집콘서트 “고맙습니다”로 다시 한 번 대한민국을 가슴 뜨겁게 만들어 줄 것이다.</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.imbc.com
 http://www.호국보훈퍼레이드.kr</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>MBC 관리자 070-4610-1155</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>&lt;호국보훈 땡큐퍼레이드&gt;   - 나라사랑 국민피켓 만들기@@ -6677,208 +6167,208 @@
  - 국민희망 만장</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>약 4-5시간</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
         <is>
           <t>호국보훈 땡큐퍼레이드 : 모든연령가능  특집콘서트 "고맙습니다"  : 15세이상 관람가능(15세 미만은 보호자동반)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>국가보훈처, MBC</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
         <is>
           <t>서울 마포구 상암동 1603</t>
         </is>
       </c>
-      <c r="R63" t="n">
+      <c r="R58" t="n">
         <v>126.89148557428</v>
       </c>
-      <c r="S63" t="n">
+      <c r="S58" t="n">
         <v>37.579932583987</v>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>서울 마포구 성암로 267</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/24962369</t>
         </is>
       </c>
-      <c r="V63" t="n">
+      <c r="V58" t="n">
         <v>2016</v>
       </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
+      <c r="W58" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" t="n">
         <v>946459.675535238</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Y58" t="n">
         <v>1953262.101865119</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="Z58" t="n">
         <v>946270.4907387312</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AA58" t="n">
         <v>1953568.324759694</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>불꽃곰신페스티벌</t>
         </is>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B59" s="2" t="n">
         <v>42539</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C59" s="2" t="n">
         <v>42539</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>대현문화공원</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>[불꽃곰신페스티벌]은 국군장병을 위해 그 뒤에서 헌신하는 여자친구, 일명 ‘곰신’에서 착안한 행사로 글로벌 방산기업 한화그룹에서 주최하는 행사이다. 즐거운 이벤트와 감동의 위문공연에 이어 신나는 경품추첨까지 준비되어 있고 누구나 자유롭게 참여, 관람이 가능하다.</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://campaign.hanwha.co.kr</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>관리자 02-519-6918</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>현장 인증사진 SNS이벤트 진행</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>기간 내 자유</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
         <is>
           <t>연령제한없음</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>한화그룹</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
         <is>
           <t>서울 서대문구 대현동 146</t>
         </is>
       </c>
-      <c r="R64" t="n">
+      <c r="R59" t="n">
         <v>126.945494081586</v>
       </c>
-      <c r="S64" t="n">
+      <c r="S59" t="n">
         <v>37.5576864560816</v>
       </c>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/21998289</t>
         </is>
       </c>
-      <c r="V64" t="n">
+      <c r="V59" t="n">
         <v>2016</v>
       </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
+      <c r="W59" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" t="n">
         <v>951213.972876948</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Y59" t="n">
         <v>1950764.531660463</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="Z59" t="n">
         <v>951024.7127142999</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AA59" t="n">
         <v>1951070.70334884</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>아트업페스티벌</t>
         </is>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B60" s="2" t="n">
         <v>42538</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C60" s="2" t="n">
         <v>42539</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>동대문디자인플라자</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>아트업페스티벌은 100인의 아티스트가 30시간 동안 폐자원을 이용하여 업사이클 아트 작품을 만드는 라이브 아트 페스티벌이다. 기존의 단순한 재활용에 예술의 상상을 더하여 새로운 가치를 창조하며, 그 과정을 시민들과 함께한다.</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://artupfestival.com</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>아트업페스티벌 사무국 관리자 02-782-0514</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>예술을 보고 듣고 느끼는 토크 콘서트 ‘아트업 라운지’     * 일시 : 2016.06.16(목) 18:00@@ -6890,407 +6380,407 @@
  아트업 라운지는 3명의 연사가 아티스트로서 각자의 경험과 소신, 생각을 나누고 관객들과 소통하는 자리다.</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
         <is>
           <t>전연령가능</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>서울시, 위누</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
         <is>
           <t>서울 중구 을지로7가 143</t>
         </is>
       </c>
-      <c r="R65" t="n">
+      <c r="R60" t="n">
         <v>127.010603826797</v>
       </c>
-      <c r="S65" t="n">
+      <c r="S60" t="n">
         <v>37.5677717021501</v>
       </c>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/27594552</t>
         </is>
       </c>
-      <c r="V65" t="n">
+      <c r="V60" t="n">
         <v>2016</v>
       </c>
-      <c r="W65" t="n">
-        <v>1</v>
-      </c>
-      <c r="X65" t="n">
+      <c r="W60" t="n">
+        <v>2</v>
+      </c>
+      <c r="X60" t="n">
         <v>956970.5159489596</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="Y60" t="n">
         <v>1951851.598645229</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="Z60" t="n">
         <v>956781.2261588267</v>
       </c>
-      <c r="AA65" t="n">
+      <c r="AA60" t="n">
         <v>1952157.675539081</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>영등포여의도봄꽃축제</t>
         </is>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B61" s="2" t="n">
         <v>42464</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C61" s="2" t="n">
         <v>42470</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>국회의사당</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>매년 따뜻한 봄기운이 살포시 느껴질 때면 여의도에서는 우리나라 제주도가 원산지인 왕벚나무 1,886주를 비롯, 진달래, 개나리, 철쭉, 조팝나무, 말발도리 등 13종 87,859주의 봄꽃이 만개해 넓게 트인 한강을 배경으로 봄의 항연이 펼쳐진다. 2005년부터 시작하여 올해로 12회째 맞이하는 &lt;영등포 여의도 봄꽃축제&gt;는 도시 속에서 한강과 벚꽃, 그리고 사람의 아름다운 몸짓이 조화를 이루어 매년 많은 상춘객들의 사람을 받고 있으며 국제적인 문화축제로 발전하고 있다.  아름다운 봄꽃과 젊은 문화예술이 살아 숨 쉬는 영등포 여의도 봄꽃축제는 남녀노소 흥겹게 참여할 수 있는 노래자랑, 거리예술 공연 비아페스티벌(VIAF), 귀여운 캐릭터 퍼레이드, 꽃마차 운영, 지역예술동호회와 유관기관의 공연, 백일장 등 다양한 공연, 전시, 홍보, 체험행사들로 설레는 상춘객의 마음을 가득 채울 것이다.</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://tour.ydp.go.kr/</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>영등포구청 02-2670-3114</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
         <is>
           <t>기간 내 자유</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
         <is>
           <t>전 연령 가능함</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>영등포구청</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>생태자원</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
         <is>
           <t>서울 영등포구 여의도동 1</t>
         </is>
       </c>
-      <c r="R66" t="n">
+      <c r="R61" t="n">
         <v>126.914214340345</v>
       </c>
-      <c r="S66" t="n">
+      <c r="S61" t="n">
         <v>37.5319749849691</v>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>서울 영등포구 의사당대로 1</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/24915171</t>
         </is>
       </c>
-      <c r="V66" t="n">
+      <c r="V61" t="n">
         <v>2016</v>
       </c>
-      <c r="W66" t="n">
-        <v>6</v>
-      </c>
-      <c r="X66" t="n">
+      <c r="W61" t="n">
+        <v>7</v>
+      </c>
+      <c r="X61" t="n">
         <v>948433.4946798652</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="Y61" t="n">
         <v>1947928.666640637</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="Z61" t="n">
         <v>948244.2141450191</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AA61" t="n">
         <v>1948234.902729211</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>어린이벼룩시장</t>
         </is>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B62" s="2" t="n">
         <v>42476</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C62" s="2" t="n">
         <v>42476</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>현대백화점 목동점</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>어린이들의 경제관념을 일깨우고 리사이클의 의미를 체험할 수 있는 어린이의, 어린이에 의한, 어린이를 위한 축제 한마당이다. 착한가격, 착한 소비를 통해 아이들과 함께 멋진 주말을 만들어볼 수 있는 기회이다.</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.ehyundai.com</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>관리자 02-2163-2710</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
         <is>
           <t>* 어린이 텐트영화제 관람 소요 시간 (5분) / *공예체험만들기 소요 시간 (15분)</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
           <t>행사당일 7층 문화홀데스크 접수비 : 5,000원 / 기타 공예체험전 : 재료비</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>현대백화점 목동점</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
         <is>
           <t>서울 양천구 목동 916</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>126.875204495616</v>
-      </c>
-      <c r="S67" t="n">
-        <v>37.5264945549459</v>
-      </c>
-      <c r="T67" t="inlineStr">
+      <c r="R62" t="n">
+        <v>126.875195397235</v>
+      </c>
+      <c r="S62" t="n">
+        <v>37.5265233773801</v>
+      </c>
+      <c r="T62" t="inlineStr">
         <is>
           <t>서울 양천구 목동동로 257</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/27262064</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/27387417</t>
+        </is>
+      </c>
+      <c r="V62" t="n">
         <v>2016</v>
       </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>944982.7745978879</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>1947342.767272123</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>944793.5126769205</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>1947649.059851406</v>
+      <c r="W62" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>944981.991850283</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1947345.970327212</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>944792.7299836521</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1947652.262892629</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>라이프플러스피크닉페스티벌</t>
         </is>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B63" s="2" t="n">
         <v>42469</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C63" s="2" t="n">
         <v>42469</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>여의도 한강공원 민속놀이마당</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Life Plus Picnic Festival은 ㈜한화생명이 주최하고, 서울시 한강사업본부가 주관하는 2016 여의도 한강공원 봄꽃 축제이다. 이번 축제는 일상에서 일생으로 ‘삶에 색을 더하다’를 테마로 하여 바리스타 커피와 다양한 음식을 즐기고 여러 뮤지션들의 콘서트를 보면서 봄날의 싱그러운 분위기를 즐길 수 있다. 남녀노소 누구나 함께 할 수 있는 다양한 볼거리, 먹거리, 즐길 거리가 가득한 축제의 현장 Life Plus Picnic Festival 4월 9일 토요일에 개최된다.</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://lifeplus-picnic.com/</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>한화생명 관리자 070-5038-5377</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>인디밴드 버스킹 공연, 북 카페, 한화생명 Life 라운지 운영</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>7시간</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
         <is>
           <t>전 연령대 관람 가능</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
         <is>
           <t>없음</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>한화생명</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>서울 영등포구 여의도동 86-7</t>
         </is>
       </c>
-      <c r="R68" t="n">
+      <c r="R63" t="n">
         <v>126.942394520142</v>
       </c>
-      <c r="S68" t="n">
+      <c r="S63" t="n">
         <v>37.5204628712126</v>
       </c>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/27562711</t>
         </is>
       </c>
-      <c r="V68" t="n">
+      <c r="V63" t="n">
         <v>2016</v>
       </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
+      <c r="W63" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
         <v>950915.7801355879</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="Y63" t="n">
         <v>1946636.352584737</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="Z63" t="n">
         <v>950726.4605282462</v>
       </c>
-      <c r="AA68" t="n">
+      <c r="AA63" t="n">
         <v>1946942.561806336</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>서울자전거대행진</t>
         </is>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B64" s="2" t="n">
         <v>42505</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C64" s="2" t="n">
         <v>42505</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>상암월드컵공원 평화광장</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2009년부터 시작하여 자전거 대행진은 에너지 절약 문화 확립과 생활 속 실천을 위해 시민이 참여하는 자전거 퍼레이드 축제이다. &lt;2016 하이서울 자전거 대행진&gt;은 5천여 명의 시민이 자전거를 타고 광화문광장을 출발하여 서울역, 한강대교 북단을 지나 월드컵공원 평화광장에 도착하는 코스로 운영된다. 서울의 대표적 도심 구간인광화문광장~한강대교 북단과, 한강의 7개 다리 아래를 지나는 강변북로 코스로 서울의 대표적인 거리를 활보하고, 한강의 아름다운 분위기를 바람과 함께 만끽할 수 있다.</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.hiseoulbike.com</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>관리자 02-2031-1913</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
         <is>
           <t>10세 이상 ~ 80세 미만의 남녀</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>서울 광화문광장  *지하철@@ -7308,103 +6798,103 @@
 0212, 1711, 7016, 7018, 7022</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>참가비 : 10,000원</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>서울특별시, 중앙일보, JTBC</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
         <is>
           <t>서울 마포구 상암동 487-359</t>
         </is>
       </c>
-      <c r="R69" t="n">
+      <c r="R64" t="n">
         <v>126.89072857366</v>
       </c>
-      <c r="S69" t="n">
+      <c r="S64" t="n">
         <v>37.5618543248587</v>
       </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/17558618</t>
         </is>
       </c>
-      <c r="V69" t="n">
+      <c r="V64" t="n">
         <v>2016</v>
       </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
+      <c r="W64" t="n">
+        <v>1</v>
+      </c>
+      <c r="X64" t="n">
         <v>946379.8588445104</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="Y64" t="n">
         <v>1951256.814421707</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="Z64" t="n">
         <v>946190.6445854874</v>
       </c>
-      <c r="AA69" t="n">
+      <c r="AA64" t="n">
         <v>1951563.054638379</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>한강서래섬유채꽃축제</t>
         </is>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B65" s="2" t="n">
         <v>42504</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C65" s="2" t="n">
         <v>42505</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>서래섬</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>5월 중순, 유채꽃으로 노랗게 물드는 반포한강공원 서래섬에서 &lt;한강 서래섬 유채꽃 축제&gt;가 개최된다. 다양한 문화공연과 어린이 대상 체험프로그램, 포토존 등을 운영한다. 기타 문의는 한강사업본부 문화홍보과(02-3780-0796)로 하면 된다.</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.facebook.com/hangangflower</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>한강사업본부 관리자 한강사업본부 문화홍보과 02-3780-0796</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
         <is>
           <t>기간내자유</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
         <is>
           <t>전연령가능</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>*  지하철 @@ -7427,386 +6917,386 @@
 40(반포동 115-5)</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>서울시</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>생태자원</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
         <is>
           <t>서울 서초구 반포동 137-41</t>
         </is>
       </c>
-      <c r="R70" t="n">
+      <c r="R65" t="n">
         <v>126.989929422809</v>
       </c>
-      <c r="S70" t="n">
+      <c r="S65" t="n">
         <v>37.5080210111994</v>
       </c>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/7937294</t>
         </is>
       </c>
-      <c r="V70" t="n">
+      <c r="V65" t="n">
         <v>2016</v>
       </c>
-      <c r="W70" t="n">
-        <v>1</v>
-      </c>
-      <c r="X70" t="n">
+      <c r="W65" t="n">
+        <v>2</v>
+      </c>
+      <c r="X65" t="n">
         <v>955108.8653204115</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="Y65" t="n">
         <v>1945232.216692033</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="Z65" t="n">
         <v>954919.4914708253</v>
       </c>
-      <c r="AA70" t="n">
+      <c r="AA65" t="n">
         <v>1945538.374393636</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>필스너스프링페스트</t>
         </is>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B66" s="2" t="n">
         <v>42503</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C66" s="2" t="n">
         <v>42505</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>코엑스</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>독일 뮌헨의 "옥토버 페스트"맥주축제가 있다면, 체코의 세계적인 규모의 맥주축제 필스너 페스트는 173년 전에 탄생한 체코 대표 프리미엄 맥주이자 ‘라거(필스너) 맥주’의 효시인 필스너 우르켈의 역사적인 탄생을 기념하는 행사로 필스너 우르켈의 탄생지인 체코의 필젠에서 매년 개최된다.   현재는 독일의 옥토버 페스트와 더불어 전세계 맥주 애호가들의 발길이 끊이지 않는 꿈의 축제로 알려져 있다.  올해로 서울에서 6회를 맞이한 필스너 페스트는 현재 국내 수입 프리미엄 맥주 시장에서 가장 높은 성장률을 보이고 있는 필스너 우르켈에 대한 국내 소비자들의 성원에 보답하고자 기획한 축제이다.</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.facebook.com/PilsnerUrquellKorea</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>관리자 02-543-5927</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>푸드트럭존, 감성공연존</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
         <is>
           <t>19세 이상 1997년생 이상 입장가능 / 1998년생부터는 보호자 동반시 입장가능</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
         <is>
           <t>A티켓 10,000원, B티켓15,000원, C티켓 20,000원</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>사브밀러</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>서울 강남구 삼성동 159</t>
         </is>
       </c>
-      <c r="R71" t="n">
+      <c r="R66" t="n">
         <v>127.058798411617</v>
       </c>
-      <c r="S71" t="n">
+      <c r="S66" t="n">
         <v>37.5126307611884</v>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>서울 강남구 영동대로 513</t>
         </is>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/26437384</t>
         </is>
       </c>
-      <c r="V71" t="n">
+      <c r="V66" t="n">
         <v>2016</v>
       </c>
-      <c r="W71" t="n">
+      <c r="W66" t="n">
+        <v>3</v>
+      </c>
+      <c r="X66" t="n">
+        <v>961198.0430894487</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1945712.967918863</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>961008.6281777843</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1946019.030931892</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>서울디저트페어</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>42504</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>42505</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>서울 양재 AT센터 1층</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>서울디저트페어는 2회 개최를 앞두고 있는 국내 최대 규모의 공식 디저트 행사로, 국내 곳곳에 있는 이색적인 명물 과자부터 특색 있는 수제 디저트와 그 관련 제품을 전시 및 소개하는 축제의 장이다. 테마에 따라 별도 기획된 디저트는 물론 해외의 유명 디저트를 모아볼 수도 있다. 뿐만 아니라 디저트 모양 액세서리, 후르츠 솝 등 달콤한 것에 특화되어있는 것이 전시가 눈길을 끈다. 체험부스 등의 구성으로 가족단위로 즐기기에도 만족스러운 행사이다.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>북팔코믹스 http://bookpalcomics.com</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>㈜북팔코믹스 관리자 02-6010-8941</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>현장에서 상품을 받을 수 있는 다양한 이벤트 / 다양한 볼거리, 즐길거리, 먹을거리</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>전연령 가능(단, 48개월 이하는 반드시 보호자와 함께 동행해야한다)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>입장료 5,000원</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>㈜북팔코믹스</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>서울 서초구 양재동 232</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>127.039139588202</v>
+      </c>
+      <c r="S67" t="n">
+        <v>37.4682588842649</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>서울 서초구 강남대로 27</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>http://place.map.kakao.com/16059103</t>
+        </is>
+      </c>
+      <c r="V67" t="n">
+        <v>2016</v>
+      </c>
+      <c r="W67" t="n">
         <v>2</v>
       </c>
-      <c r="X71" t="n">
-        <v>961198.0430894487</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>1945712.967918863</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>961008.6281777843</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>1946019.030931892</v>
+      <c r="X67" t="n">
+        <v>959436.6361612002</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1940798.46386574</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>959247.1619369027</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1941104.592263156</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>서울디저트페어</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>42504</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>42505</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>서울 양재 AT센터 1층</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>서울디저트페어는 2회 개최를 앞두고 있는 국내 최대 규모의 공식 디저트 행사로, 국내 곳곳에 있는 이색적인 명물 과자부터 특색 있는 수제 디저트와 그 관련 제품을 전시 및 소개하는 축제의 장이다. 테마에 따라 별도 기획된 디저트는 물론 해외의 유명 디저트를 모아볼 수도 있다. 뿐만 아니라 디저트 모양 액세서리, 후르츠 솝 등 달콤한 것에 특화되어있는 것이 전시가 눈길을 끈다. 체험부스 등의 구성으로 가족단위로 즐기기에도 만족스러운 행사이다.</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>북팔코믹스 http://bookpalcomics.com</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>㈜북팔코믹스 관리자 02-6010-8941</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>현장에서 상품을 받을 수 있는 다양한 이벤트 / 다양한 볼거리, 즐길거리, 먹을거리</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>전연령 가능(단, 48개월 이하는 반드시 보호자와 함께 동행해야한다)</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>입장료 5,000원</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>㈜북팔코믹스</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>서울 서초구 양재동 232</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>127.039139588202</v>
-      </c>
-      <c r="S72" t="n">
-        <v>37.4682588842649</v>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>서울 서초구 강남대로 27</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>http://place.map.kakao.com/16059103</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v>2016</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X72" t="n">
-        <v>959436.6361612002</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>1940798.46386574</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>959247.1619369027</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>1941104.592263156</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>10초국제애니메이션페스티벌</t>
         </is>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B68" s="2" t="n">
         <v>42565</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C68" s="2" t="n">
         <v>42568</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>탈영역 우정국</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2011년에 시작하여 올해 6회를 맞이하는 탈권위적 초단편 애니메이션 페스티벌.     10초 분량의 초단편 애니메이션 및 영상작품을 누구나 출품하고 심사하며 수상하는 마지막순간까지 누구나 심사위원이 될 수 있는 단 한 명의 탈락자도 없는 시민참여형 초단편 애니메이션 축제이다. 기존의 페스티벌과는 달리 애니메이터와 일반 관객 모두 페스티벌의 주체가 되어 진행되는 애니메이션페스티벌로 오는 07월 14일 (목)부터 17일 (일)까지 4일간 탈영역우정국에서 진행된다.</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.10secfest.com</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>관리자 02-957-0967</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>개·폐막식, 감독과의 만남 外 10개 프로그램으로 구성.</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>축제 내 프로그램따라 상이, 평균 2.5시간 소요</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
         <is>
           <t>전체관람가능</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
         <is>
           <t>입장료 무료</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>10초 애니메이션 페스티벌 조직위원회</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
         <is>
           <t>서울 마포구 창전동 390-11</t>
         </is>
       </c>
-      <c r="R73" t="n">
+      <c r="R68" t="n">
         <v>126.927618031745</v>
       </c>
-      <c r="S73" t="n">
+      <c r="S68" t="n">
         <v>37.54693335111</v>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>서울 마포구 독막로20길 42</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/1543764753</t>
         </is>
       </c>
-      <c r="V73" t="n">
+      <c r="V68" t="n">
         <v>2016</v>
       </c>
-      <c r="W73" t="n">
-        <v>3</v>
-      </c>
-      <c r="X73" t="n">
+      <c r="W68" t="n">
+        <v>4</v>
+      </c>
+      <c r="X68" t="n">
         <v>949627.8450142368</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="Y68" t="n">
         <v>1949580.959127892</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="Z68" t="n">
         <v>949438.5797517237</v>
       </c>
-      <c r="AA73" t="n">
+      <c r="AA68" t="n">
         <v>1949887.164072863</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>4.19혁명국민문화제</t>
         </is>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B69" s="2" t="n">
         <v>42476</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C69" s="2" t="n">
         <v>42479</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>국립4.19민주묘지</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>4.19혁명은 학생이 주도하고 국민이 뒤따라 정권을 바꾼 우리 현대사의 위대한 전환점이었다. 4.19혁명국민문화제는 국민의 무관심속에 잊혀 가고 있는 4.19혁명의 정신을 되새기고 단순한 기념식을 벗어나 계층과 세대를 초월하여 많은 시민들이 하나가 되고 4·19혁명 그 때를 되돌아보며 4·19이념의 가치를 공유할 수 있다는데 큰 의미가 있다.@@ -7814,29 +7304,29 @@
  4·19혁명국민문화제는 4·19혁명이 부활하는 출발점이 될 것이며 소중한 4·19이념을 후손에게 물려줄 수 있는 좋은 계기가 되었으면 한다.</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.419festival.org</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>4.19민주혁명국민문화제위원회 관리자 02-901-2342~3</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
         <is>
           <t>프로그램별 상이</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
         <is>
           <t>전 연령 관람가능</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>[지하철] 4호선 수유역 2번, 6번 출구-&gt;마을버스 강북01, 지선버스 1119@@ -7845,210 +7335,210 @@
 간선버스: 101, 104, 109, 120, 144, 151, 170</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>없음</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>4·19민주혁명회, 4·19혁명희생자유족회, 4·19혁명공로자회, 강북구</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
         <is>
           <t>서울 강북구 수유동 580-1</t>
         </is>
       </c>
-      <c r="R74" t="n">
+      <c r="R69" t="n">
         <v>127.007655529176</v>
       </c>
-      <c r="S74" t="n">
+      <c r="S69" t="n">
         <v>37.648576279141</v>
       </c>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/10856260</t>
         </is>
       </c>
-      <c r="V74" t="n">
+      <c r="V69" t="n">
         <v>2016</v>
       </c>
-      <c r="W74" t="n">
-        <v>3</v>
-      </c>
-      <c r="X74" t="n">
+      <c r="W69" t="n">
+        <v>4</v>
+      </c>
+      <c r="X69" t="n">
         <v>956757.0263450645</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="Y69" t="n">
         <v>1960817.951114177</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="Z69" t="n">
         <v>956567.8720832728</v>
       </c>
-      <c r="AA74" t="n">
+      <c r="AA69" t="n">
         <v>1961123.958839451</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>전통주와전통음식의만남축제</t>
         </is>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B70" s="2" t="n">
         <v>42509</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C70" s="2" t="n">
         <v>42510</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>남산골 한옥마을</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>농축산식품부와 한국농수산유통공사, 서울특별시가 주최하고 (사)한국전통음식연구소가 주관하는 " 제 9회 전통주와 전통음식의 만남 축제" 서울 중구 소재, 남산골 한옥마을에서 한국 전통주와 전통음식의 아름다운 맛과 멋을 경험할 수 있다. 아름다운 한옥과 함께 한국의 전통주, 전통음식을 체험할 수 있는 기회를 제공함으로써 한국식문화에 대한 긍정적 이미지 홍보를 기대하며 전시, 시연, 시음/시식, 공연, 체험, 경연대회 등 다양한 프로그램을 통해 국내외 관광객들과 행사 관람객들에게 우리 전통문화의 우수성을 느끼고 경험하는 기회 제공(시식, 체험 무료 진행)한다. 전통주와 전통음식의 대중화, 세계화를 위한 가능성과 과제를 진단하고 홍보를 통해 전통식품 산업의 활성화 기대한다.</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.kfr.or.kr</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>(사)한국전통음식연구소 관리자 02-708-0702, 010-6237-4135</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
         <is>
           <t>남녀노소 전연령 가능</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>서울특별시 종로구 삼일대로 464 (안국역 4번출구 도보 1분)</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>농림축산식품부, 한국농식품유통공사, 서울특별시</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
         <is>
           <t>서울 중구 필동2가 84-1</t>
         </is>
       </c>
-      <c r="R75" t="n">
+      <c r="R70" t="n">
         <v>126.994757541945</v>
       </c>
-      <c r="S75" t="n">
+      <c r="S70" t="n">
         <v>37.5592738638318</v>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>서울 중구 퇴계로34길 28</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/8246127</t>
         </is>
       </c>
-      <c r="V75" t="n">
+      <c r="V70" t="n">
         <v>2016</v>
       </c>
-      <c r="W75" t="n">
-        <v>1</v>
-      </c>
-      <c r="X75" t="n">
+      <c r="W70" t="n">
+        <v>2</v>
+      </c>
+      <c r="X70" t="n">
         <v>955566.0491611534</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="Y70" t="n">
         <v>1950916.183820087</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="Z70" t="n">
         <v>955376.7565971893</v>
       </c>
-      <c r="AA75" t="n">
+      <c r="AA70" t="n">
         <v>1951222.289198561</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>한강물싸움축제</t>
         </is>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B71" s="2" t="n">
         <v>42574</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C71" s="2" t="n">
         <v>42575</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>여의도 한강공원 멀티플라자</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>세계최대의 물풍선싸움! 서울시의 대표 물싸움축제로 자리잡는 2016년 한강물싸움축제 .  지금껏 경험하지 못한 이색 물풍선싸움을 경험 할 수있다.세계최대의 팀대항전 형식의 물풍선싸움과 물총싸움으로 장관을 연출하여 다른 어떤 물축제와는 다른 특별한 경험을 하게 될 것이다.  더위에 지치고 일상에 지친 청춘들의 물싸움축제! 유명 디제이와 힙합뮤지션이 함께하는 일렉트로닉 &amp; 힙합 페스티벌 !</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.facebook.com/한강물싸움축제-867458509957963</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>관리자 02-2156-3056</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>일렉트로닉&amp;힙합페스티벌, 징검다리걷기, 번지트램블린, 튜브점프, 물풍선던지기</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>9시간</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
         <is>
           <t>연령제한없음</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>[지하철]  5호선 여의나루역 @@ -8056,200 +7546,200 @@
  9호선 국회의사당역</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>온라인판매처 참고</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>무언가</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
         <is>
           <t>서울 영등포구 여의도동 84-4</t>
         </is>
       </c>
-      <c r="R76" t="n">
+      <c r="R71" t="n">
         <v>126.933528386294</v>
       </c>
-      <c r="S76" t="n">
+      <c r="S71" t="n">
         <v>37.5278320168204</v>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>서울 영등포구 여의동로 지하 343</t>
         </is>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/25758412</t>
         </is>
       </c>
-      <c r="V76" t="n">
+      <c r="V71" t="n">
         <v>2016</v>
       </c>
-      <c r="W76" t="n">
-        <v>1</v>
-      </c>
-      <c r="X76" t="n">
+      <c r="W71" t="n">
+        <v>2</v>
+      </c>
+      <c r="X71" t="n">
         <v>950137.2110400979</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="Y71" t="n">
         <v>1947458.594666326</v>
       </c>
-      <c r="Z76" t="n">
+      <c r="Z71" t="n">
         <v>949947.9099282175</v>
       </c>
-      <c r="AA76" t="n">
+      <c r="AA71" t="n">
         <v>1947764.808976347</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>충무공이순신탄신기념행사</t>
         </is>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B72" s="2" t="n">
         <v>42486</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C72" s="2" t="n">
         <v>42488</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>남산골한옥마을</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>충무공 탄생 471주년을 기념하여 &lt;충무공 이순신 장군 탄생 기념행사&gt;를 개최한다. 이번 행사는 자라나는 청소년과 시민들에게 서울 중구가 성웅 이순신 장군의 탄생지 임 과 거북선의 우수성을 널리 알리고 , 충무공의 애국정신과 호국정신을 계승하며, 맑은 청계천에서 미래의 꿈과 희망을 가질 수 있도록 하기 위한 것이다.</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://tour.junggu.seoul.kr/tour/</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>중구문화원 관리자 02-775-3001</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
         <is>
           <t>기간 내 자유</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
         <is>
           <t>전 연령 가능</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>지하철 3, 4호선 충무로역 하차 3, 4번 출구</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>서울 중구청, 중구문화원</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>서울 중구 필동2가 84-1</t>
         </is>
       </c>
-      <c r="R77" t="n">
+      <c r="R72" t="n">
         <v>126.994757541945</v>
       </c>
-      <c r="S77" t="n">
+      <c r="S72" t="n">
         <v>37.5592738638318</v>
       </c>
-      <c r="T77" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>서울 중구 퇴계로34길 28</t>
         </is>
       </c>
-      <c r="U77" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/8246127</t>
         </is>
       </c>
-      <c r="V77" t="n">
+      <c r="V72" t="n">
         <v>2016</v>
       </c>
-      <c r="W77" t="n">
-        <v>2</v>
-      </c>
-      <c r="X77" t="n">
+      <c r="W72" t="n">
+        <v>3</v>
+      </c>
+      <c r="X72" t="n">
         <v>955566.0491611534</v>
       </c>
-      <c r="Y77" t="n">
+      <c r="Y72" t="n">
         <v>1950916.183820087</v>
       </c>
-      <c r="Z77" t="n">
+      <c r="Z72" t="n">
         <v>955376.7565971893</v>
       </c>
-      <c r="AA77" t="n">
+      <c r="AA72" t="n">
         <v>1951222.289198561</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>세종탄신기념문화행사</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B73" s="2" t="n">
         <v>42505</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C73" s="2" t="n">
         <v>42505</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>국립한글박물관</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>제 619돌을 맞은 세종대왕 탄신 기념 문화행사가 5월 15일 국립한글박물관 잔디마당에서 개최됩니다. 따뜻한 봄날, 세종대왕님의 생일잔치가 열리는 국립한글박물관으로 나들이를 떠나보세요!</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.hangeul.go.kr/event/userEventApplyDetail.do?curr_menu_cd=0103050300&amp;event_no=131&amp;event_type_cd=1</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>02-2124-6200</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>- 공연     • 음악극 ‘위대한 성군, 세종’@@ -8271,288 +7761,288 @@
 • 한글 블록 만들기</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
         <is>
           <t>전연령가능</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>국립한글박물관</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>문화예술</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
         <is>
           <t>서울 용산구 용산동6가 168-6</t>
         </is>
       </c>
-      <c r="R78" t="n">
+      <c r="R73" t="n">
         <v>126.980977473728</v>
       </c>
-      <c r="S78" t="n">
+      <c r="S73" t="n">
         <v>37.5211853774917</v>
       </c>
-      <c r="T78" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>서울 용산구 서빙고로 139</t>
         </is>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/25612651</t>
         </is>
       </c>
-      <c r="V78" t="n">
+      <c r="V73" t="n">
         <v>2016</v>
       </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
+      <c r="W73" t="n">
+        <v>1</v>
+      </c>
+      <c r="X73" t="n">
         <v>954325.7070492505</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="Y73" t="n">
         <v>1946697.051846541</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="Z73" t="n">
         <v>954136.361299988</v>
       </c>
-      <c r="AA78" t="n">
+      <c r="AA73" t="n">
         <v>1947003.20955536</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>희망의운동화나눔축제</t>
         </is>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B74" s="2" t="n">
         <v>42510</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C74" s="2" t="n">
         <v>42511</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>서울 광화문 광장</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>&lt;희망의 운동화 나눔 축제&gt;는 운동화 위에 세계 평화와 희망을 상징하는 이미지를 그려 넣어 해외 빈곤 청소년들에게 전달하는 나눔운동 축제이다.</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.mizy.net</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>서울시립청소년문화교류센터(Mizy) 관리자 미지(Mizy)센터 02-755-1024</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
         <is>
           <t>기간내자유</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
         <is>
           <t>청소년 및 일반시민</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>* 지하철 1호선 시청역 하차 3번출구 덕수궁을 지나 코리아나 호텔 방향  * 지하철 3호선 경복궁역 하차 6,7번 출구 외환은행 방향  * 지하철 5호선 광화문역 하차 1,8번 출구</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>참가비 5,000원</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>서울특별시, 대산문화재단, 관세청</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
         <is>
           <t>서울 종로구 세종로 1-68</t>
         </is>
       </c>
-      <c r="R79" t="n">
+      <c r="R74" t="n">
         <v>126.9769163960151</v>
       </c>
-      <c r="S79" t="n">
+      <c r="S74" t="n">
         <v>37.57260286081019</v>
       </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/8193961</t>
         </is>
       </c>
-      <c r="V79" t="n">
+      <c r="V74" t="n">
         <v>2016</v>
       </c>
-      <c r="W79" t="n">
-        <v>1</v>
-      </c>
-      <c r="X79" t="n">
+      <c r="W74" t="n">
+        <v>2</v>
+      </c>
+      <c r="X74" t="n">
         <v>953998.4963737333</v>
       </c>
-      <c r="Y79" t="n">
+      <c r="Y74" t="n">
         <v>1952403.579045305</v>
       </c>
-      <c r="Z79" t="n">
+      <c r="Z74" t="n">
         <v>953809.2385327395</v>
       </c>
-      <c r="AA79" t="n">
+      <c r="AA74" t="n">
         <v>1952709.695903297</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>빗물축제</t>
         </is>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B75" s="2" t="n">
         <v>42579</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C75" s="2" t="n">
         <v>42582</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>서울시청 광장</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>물순환 시민 문화제에서 서울시와 시민들의 실천의지가 함께 할 수 있는 축제의 장으로 변화하고자, 서울 시민 한자리에 모여 물순환의 중요성을 되새기고 다양한 사회 계층 대상의 현장 체험과 참여를 통한 소통을 목표로 하며 물의 보전과 절약에 대한 시민들의 관심을 얻기 위한 다양한 프로그램을 준비한 공연이다.</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.facebook.com/events/1126526240721644</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>관리자 물순환정책과 02-2133-3762</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>빗물 퍼포먼스(플레쉬몹), , 물순환 박람회, 레인마켓, 빗물놀이터, 물순환 시민참여 행사 등</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>12시간</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
         <is>
           <t>전 연령 가능</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
         <is>
           <t>서울시</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>생태자원</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
         <is>
           <t>서울 중구 태평로1가 54-3</t>
         </is>
       </c>
-      <c r="R80" t="n">
+      <c r="R75" t="n">
         <v>126.977968926957</v>
       </c>
-      <c r="S80" t="n">
+      <c r="S75" t="n">
         <v>37.5656726042805</v>
       </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/7940285</t>
         </is>
       </c>
-      <c r="V80" t="n">
+      <c r="V75" t="n">
         <v>2016</v>
       </c>
-      <c r="W80" t="n">
-        <v>3</v>
-      </c>
-      <c r="X80" t="n">
+      <c r="W75" t="n">
+        <v>4</v>
+      </c>
+      <c r="X75" t="n">
         <v>954087.1812964875</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="Y75" t="n">
         <v>1951634.179023069</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="Z75" t="n">
         <v>953897.9112466184</v>
       </c>
-      <c r="AA80" t="n">
+      <c r="AA75" t="n">
         <v>1951940.300737933</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>남산골한옥마을세시맞이오(五)대감설날잔치</t>
         </is>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B76" s="2" t="n">
         <v>42408</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C76" s="2" t="n">
         <v>42409</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>서울특별시 중구 퇴계로34길 28</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>서울 중구에 위치한 남산골한옥마을에서는 설 명절을 맞아 다양한 전통문화 프로그램을 선보이는 2016 병신년과 함께 남산골한옥마을 세시맞이 &lt;오(五)대감 설날 잔치&gt; 행사를 개최한다.   - 떡국 나누기, 떡 메치기 등@@ -8561,103 +8051,103 @@
 - 민속놀이마당 (제기차기, 팽이치기, 투호 등 다양한 민속놀이 체험) 및 만들기 체험 등</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://hanokmaeul.or.kr</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>02-2264-4412</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
         <is>
           <t>기간 내 자유</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
         <is>
           <t>전 연령 가능함</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
         <is>
           <t>무료 (참가비 제외)</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>서울특별시/남산골한옥마을</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>전통역사</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
         <is>
           <t>서울 중구 필동2가 84-1</t>
         </is>
       </c>
-      <c r="R81" t="n">
+      <c r="R76" t="n">
         <v>126.994757541945</v>
       </c>
-      <c r="S81" t="n">
+      <c r="S76" t="n">
         <v>37.5592738638318</v>
       </c>
-      <c r="T81" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>서울 중구 퇴계로34길 28</t>
         </is>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/8246127</t>
         </is>
       </c>
-      <c r="V81" t="n">
+      <c r="V76" t="n">
         <v>2016</v>
       </c>
-      <c r="W81" t="n">
-        <v>1</v>
-      </c>
-      <c r="X81" t="n">
+      <c r="W76" t="n">
+        <v>2</v>
+      </c>
+      <c r="X76" t="n">
         <v>955566.0491611534</v>
       </c>
-      <c r="Y81" t="n">
+      <c r="Y76" t="n">
         <v>1950916.183820087</v>
       </c>
-      <c r="Z81" t="n">
+      <c r="Z76" t="n">
         <v>955376.7565971893</v>
       </c>
-      <c r="AA81" t="n">
+      <c r="AA76" t="n">
         <v>1951222.289198561</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>종묘대제</t>
         </is>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B77" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C77" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>서울 종로구 종묘</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>문화재청과 한국문화재재단이 공동 주최하고 종묘대제 봉행위원회(종묘제례보존회 ㆍ 종묘 제례악보존회)가 주관하는 종묘대제가 매년 5월 첫째 주 일요일에 봉행된다.  중요무형문화재 제56호인 종묘대제는 세계유산인 종묘에서 봉행되는 국가 제사로 유형과 무형의 세계유산을 함께 감상할 수 있는 유례가 드문 전통의례이다. @@ -8666,25 +8156,25 @@
  종묘는 조선왕조 때 공덕이 있는 역대 왕과 왕비의 신주(神主)를 모신 정전과, 추존(追尊) 된 왕과 왕비의 신주를 모신 영녕전, 그리고 정전 월대 아래에는 개국 초부터 역대 왕에게 선정의 공이 큰 신하의 신주를 모신 공신당에 제사를 지내는 곳이다.</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.jongmyo.net/</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>종묘대제봉행위원회(종묘제례보존회ㆍ종묘제례악보존회) 관리자 02-765-2124</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
         <is>
           <t>전연령 가능함</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>* 지하철 - 1, 3, 5호선 종로3가 하차  * 버스 - 종로4가 하차@@ -8695,55 +8185,55 @@
 공항버스 - 601, 602번</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>무료</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>문화재청ㆍ한국문화재재단</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
         <is>
           <t>서울 종로구 훈정동 1-2</t>
         </is>
       </c>
-      <c r="R82" t="n">
+      <c r="R77" t="n">
         <v>126.994896955837</v>
       </c>
-      <c r="S82" t="n">
+      <c r="S77" t="n">
         <v>37.5728825137949</v>
       </c>
-      <c r="T82" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>서울 종로구 종로 157</t>
         </is>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="U77" t="inlineStr">
         <is>
           <t>http://place.map.kakao.com/7870136</t>
         </is>
       </c>
-      <c r="V82" t="n">
+      <c r="V77" t="n">
         <v>2016</v>
       </c>
-      <c r="W82" t="n">
-        <v>0</v>
-      </c>
-      <c r="X82" t="n">
+      <c r="W77" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" t="n">
         <v>955586.4549926306</v>
       </c>
-      <c r="Y82" t="n">
+      <c r="Y77" t="n">
         <v>1952425.941796486</v>
       </c>
-      <c r="Z82" t="n">
+      <c r="Z77" t="n">
         <v>955397.1848165581</v>
       </c>
-      <c r="AA82" t="n">
+      <c r="AA77" t="n">
         <v>1952732.034742976</v>
       </c>
     </row>
